--- a/pokemons_sorted.xlsx
+++ b/pokemons_sorted.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}]</t>
+          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow', 'description': 'increases the power of'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll', 'description': "doubles the ability-bearer's Speed during"}]</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}]</t>
+          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat', 'description': 'reduces the damage taken from'}]</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze'}, {'name': 'Solar Power', 'url': 'https://pokemondb.net/ability/solar-power'}, {'name': 'Tough Claws', 'url': 'https://pokemondb.net/ability/tough-claws'}, {'name': 'Drought', 'url': 'https://pokemondb.net/ability/drought'}]</t>
+          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze', 'description': 'increases the power of'}, {'name': 'Solar Power', 'url': 'https://pokemondb.net/ability/solar-power', 'description': 'During harsh sunlight,'}, {'name': 'Tough Claws', 'url': 'https://pokemondb.net/ability/tough-claws', 'description': 'increases the power of moves that make contact.'}, {'name': 'Drought', 'url': 'https://pokemondb.net/ability/drought', 'description': 'creates harsh sunlight when the ability-bearer enters battle. The effect lasts 5 turns, unless it is cleared via'}]</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Rain Dish', 'url': 'https://pokemondb.net/ability/rain-dish'}]</t>
+          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent', 'description': 'increases the power of'}, {'name': 'Rain Dish', 'url': 'https://pokemondb.net/ability/rain-dish', 'description': 'A Pokémon with'}]</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Rain Dish', 'url': 'https://pokemondb.net/ability/rain-dish'}, {'name': 'Mega Launcher', 'url': 'https://pokemondb.net/ability/mega-launcher'}]</t>
+          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Rain Dish', 'url': 'https://pokemondb.net/ability/rain-dish'}, {'name': 'Mega Launcher', 'url': 'https://pokemondb.net/ability/mega-launcher', 'description': 'increases the power of all'}]</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[{'name': 'Shed Skin', 'url': 'https://pokemondb.net/ability/shed-skin'}]</t>
+          <t>[{'name': 'Shed Skin', 'url': 'https://pokemondb.net/ability/shed-skin', 'description': 'The Pokémon may heal its own status problems.'}]</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[{'name': 'Compound Eyes', 'url': 'https://pokemondb.net/ability/compound-eyes'}, {'name': 'Tinted Lens', 'url': 'https://pokemondb.net/ability/tinted-lens'}]</t>
+          <t>[{'name': 'Compound Eyes', 'url': 'https://pokemondb.net/ability/compound-eyes', 'description': "raises the ability-bearer's accuracy by 30%."}, {'name': 'Tinted Lens', 'url': 'https://pokemondb.net/ability/tinted-lens', 'description': 'Powers up “not very effective” moves.'}]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[{'name': 'Shield Dust', 'url': 'https://pokemondb.net/ability/shield-dust'}, {'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away'}]</t>
+          <t>[{'name': 'Shield Dust', 'url': 'https://pokemondb.net/ability/shield-dust', 'description': 'Blocks the added effects of attacks taken.'}, {'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away', 'description': 'allows the bearer to flee a battle with a wild Pokémon without fail, even if the opposing Pokémon has used a move like'}]</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod'}]</t>
+          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static', 'description': 'If a Pokémon with'}, {'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod', 'description': 'forces all single-target'}]</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod'}, {'name': 'Surge Surfer', 'url': 'https://pokemondb.net/ability/surge-surfer'}]</t>
+          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod'}, {'name': 'Surge Surfer', 'url': 'https://pokemondb.net/ability/surge-surfer', 'description': "doubles the bearer's Speed when"}]</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[{'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Arena Trap', 'url': 'https://pokemondb.net/ability/arena-trap'}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Tangling Hair', 'url': 'https://pokemondb.net/ability/tangling-hair'}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force'}]</t>
+          <t>[{'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Arena Trap', 'url': 'https://pokemondb.net/ability/arena-trap'}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Tangling Hair', 'url': 'https://pokemondb.net/ability/tangling-hair', 'description': "Contact with the Pokémon lowers the attacker's Speed stat."}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force'}]</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[{'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': 'Fur Coat', 'url': 'https://pokemondb.net/ability/fur-coat'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}, {'name': 'Rattled', 'url': 'https://pokemondb.net/ability/rattled'}]</t>
+          <t>[{'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber', 'description': 'The Pokémon is protected from paralysis.'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician', 'description': 'increases the power of moves - that are usually base power 60 or below - by 50%.'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve', 'description': 'Makes the foe nervous and unable to eat Berries.'}, {'name': 'Fur Coat', 'url': 'https://pokemondb.net/ability/fur-coat', 'description': 'reduces damage taken from physical attacks by 50%.'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician', 'description': 'increases the power of moves - that are usually base power 60 or below - by 50%.'}, {'name': 'Rattled', 'url': 'https://pokemondb.net/ability/rattled', 'description': 'When a Pokémon with'}]</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[{'name': 'Rock Head', 'url': 'https://pokemondb.net/ability/rock-head'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Magnet Pull', 'url': 'https://pokemondb.net/ability/magnet-pull'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Galvanize', 'url': 'https://pokemondb.net/ability/galvanize'}]</t>
+          <t>[{'name': 'Rock Head', 'url': 'https://pokemondb.net/ability/rock-head'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Magnet Pull', 'url': 'https://pokemondb.net/ability/magnet-pull'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Galvanize', 'url': 'https://pokemondb.net/ability/galvanize', 'description': 'Normal-type moves become Electric-type moves and their power boosted.'}]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[{'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away'}, {'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}, {'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away'}, {'name': 'Pastel Veil', 'url': 'https://pokemondb.net/ability/pastel-veil'}, {'name': 'Anticipation', 'url': 'https://pokemondb.net/ability/anticipation'}]</t>
+          <t>[{'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away'}, {'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}, {'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away'}, {'name': 'Pastel Veil', 'url': 'https://pokemondb.net/ability/pastel-veil', 'description': 'prevents the Pokémon and its teammates from being poisoned. It also cures teammates of poisoning when it enters the battlefield.'}, {'name': 'Anticipation', 'url': 'https://pokemondb.net/ability/anticipation'}]</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[{'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor'}, {'name': 'Quick Draw', 'url': 'https://pokemondb.net/ability/quick-draw'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
+          <t>[{'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor'}, {'name': 'Quick Draw', 'url': 'https://pokemondb.net/ability/quick-draw', 'description': ''}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[{'name': 'Stench', 'url': 'https://pokemondb.net/ability/stench'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold'}, {'name': 'Poison Touch', 'url': 'https://pokemondb.net/ability/poison-touch'}, {'name': 'Poison Touch', 'url': 'https://pokemondb.net/ability/poison-touch'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Power of Alchemy', 'url': 'https://pokemondb.net/ability/power-of-alchemy'}]</t>
+          <t>[{'name': 'Stench', 'url': 'https://pokemondb.net/ability/stench'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold'}, {'name': 'Poison Touch', 'url': 'https://pokemondb.net/ability/poison-touch'}, {'name': 'Poison Touch', 'url': 'https://pokemondb.net/ability/poison-touch'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Power of Alchemy', 'url': 'https://pokemondb.net/ability/power-of-alchemy', 'description': 'The Pokémon copies the Ability of a defeated ally.'}]</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Harvest', 'url': 'https://pokemondb.net/ability/harvest'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Harvest', 'url': 'https://pokemondb.net/ability/harvest'}]</t>
+          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Harvest', 'url': 'https://pokemondb.net/ability/harvest', 'description': 'May create another Berry after one is used.'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk', 'description': "The Pokémon can check a foe's held item."}, {'name': 'Harvest', 'url': 'https://pokemondb.net/ability/harvest', 'description': 'May create another Berry after one is used.'}]</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[{'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate'}, {'name': 'Neutralizing Gas', 'url': 'https://pokemondb.net/ability/neutralizing-gas'}, {'name': 'Stench', 'url': 'https://pokemondb.net/ability/stench'}, {'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate'}, {'name': 'Neutralizing Gas', 'url': 'https://pokemondb.net/ability/neutralizing-gas'}, {'name': 'Misty Surge', 'url': 'https://pokemondb.net/ability/misty-surge'}]</t>
+          <t>[{'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate'}, {'name': 'Neutralizing Gas', 'url': 'https://pokemondb.net/ability/neutralizing-gas', 'description': 'Neutralizes abilities of all Pokémon in battle.'}, {'name': 'Stench', 'url': 'https://pokemondb.net/ability/stench'}, {'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate'}, {'name': 'Neutralizing Gas', 'url': 'https://pokemondb.net/ability/neutralizing-gas', 'description': 'Neutralizes abilities of all Pokémon in battle.'}, {'name': 'Misty Surge', 'url': 'https://pokemondb.net/ability/misty-surge'}]</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[{'name': 'Early Bird', 'url': 'https://pokemondb.net/ability/early-bird'}, {'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy'}, {'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus'}, {'name': 'Parental Bond', 'url': 'https://pokemondb.net/ability/parental-bond'}]</t>
+          <t>[{'name': 'Early Bird', 'url': 'https://pokemondb.net/ability/early-bird'}, {'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy'}, {'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus'}, {'name': 'Parental Bond', 'url': 'https://pokemondb.net/ability/parental-bond', 'description': 'allows the ability-bearer to attack twice. The second attack hits with 25% of the power, so in effect it is equivalent to a 25% boost to all attacks.'}]</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[{'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber'}, {'name': 'Imposter', 'url': 'https://pokemondb.net/ability/imposter'}]</t>
+          <t>[{'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber'}, {'name': 'Imposter', 'url': 'https://pokemondb.net/ability/imposter', 'description': 'It transforms itself into the Pokémon it is facing.'}]</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>[{'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away'}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}]</t>
+          <t>[{'name': 'Run Away', 'url': 'https://pokemondb.net/ability/run-away'}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye', 'description': 'prevents the Pokémon from losing accuracy, for example from moves like'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}]</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>[{'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Serene Grace', 'url': 'https://pokemondb.net/ability/serene-grace'}, {'name': 'Super Luck', 'url': 'https://pokemondb.net/ability/super-luck'}]</t>
+          <t>[{'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle', 'description': "increases the ability-bearer's Attack by 50%, however, it also reduces the Accuracy of all Physical moves by 20%."}, {'name': 'Serene Grace', 'url': 'https://pokemondb.net/ability/serene-grace', 'description': "doubles the chance of moves' secondary effects occurring - specifically stat changes, status ailments, or flinching. It also increases the chance of flinching due to the held items"}, {'name': 'Super Luck', 'url': 'https://pokemondb.net/ability/super-luck', 'description': "raises the ability-bearer's critical-hit ratio by one stage (for most moves this increases from a"}]</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>[{'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Early Bird', 'url': 'https://pokemondb.net/ability/early-bird'}, {'name': 'Magic Bounce', 'url': 'https://pokemondb.net/ability/magic-bounce'}]</t>
+          <t>[{'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize', 'description': 'If the opponent causes a burn, paralysis, or poisoning of a Pokémon with'}, {'name': 'Early Bird', 'url': 'https://pokemondb.net/ability/early-bird', 'description': 'The Pokémon awakens quickly from sleep.'}, {'name': 'Magic Bounce', 'url': 'https://pokemondb.net/ability/magic-bounce', 'description': 'Reflects status- changing moves.'}]</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Plus', 'url': 'https://pokemondb.net/ability/plus'}]</t>
+          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Plus', 'url': 'https://pokemondb.net/ability/plus', 'description': 'Ups Sp. Atk if another Pokémon has Plus or Minus.'}]</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>[{'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Curious Medicine', 'url': 'https://pokemondb.net/ability/curious-medicine'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
+          <t>[{'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Curious Medicine', 'url': 'https://pokemondb.net/ability/curious-medicine', 'description': 'Resets all stat changes upon entering battlefield.'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>[{'name': 'Magma Armor', 'url': 'https://pokemondb.net/ability/magma-armor'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}, {'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor'}]</t>
+          <t>[{'name': 'Magma Armor', 'url': 'https://pokemondb.net/ability/magma-armor', 'description': 'prevents the Pokémon from becoming frozen, for example from moves like'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body', 'description': 'If a Pokémon with'}, {'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor'}]</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>[{'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious'}, {'name': 'Snow Cloak', 'url': 'https://pokemondb.net/ability/snow-cloak'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}]</t>
+          <t>[{'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious', 'description': 'makes the Pokémon immune to gender-based moves and abilities, specifically'}, {'name': 'Snow Cloak', 'url': 'https://pokemondb.net/ability/snow-cloak', 'description': "raises ability-bearer's evasion by 20% in a hail storm. It also gives immunity to damage by hail (if they are not already protected by being"}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}]</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>[{'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Natural Cure', 'url': 'https://pokemondb.net/ability/natural-cure'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor'}, {'name': 'Cursed Body', 'url': 'https://pokemondb.net/ability/cursed-body'}]</t>
+          <t>[{'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Natural Cure', 'url': 'https://pokemondb.net/ability/natural-cure', 'description': 'All status problems heal when it switches out.'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator', 'description': 'A Pokémon with'}, {'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor', 'description': 'When a Pokémon with'}, {'name': 'Cursed Body', 'url': 'https://pokemondb.net/ability/cursed-body', 'description': 'May disable a move used on the Pokémon.'}]</t>
         </is>
       </c>
     </row>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Multiscale', 'url': 'https://pokemondb.net/ability/multiscale'}]</t>
+          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Multiscale', 'url': 'https://pokemondb.net/ability/multiscale', 'description': 'Reduces damage when HP is full.'}]</t>
         </is>
       </c>
     </row>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>[{'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Trace', 'url': 'https://pokemondb.net/ability/trace'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}, {'name': 'Pixilate', 'url': 'https://pokemondb.net/ability/pixilate'}]</t>
+          <t>[{'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Trace', 'url': 'https://pokemondb.net/ability/trace', 'description': "The Pokémon copies a foe's Ability."}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}, {'name': 'Pixilate', 'url': 'https://pokemondb.net/ability/pixilate'}]</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>[{'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore'}, {'name': 'Poison Heal', 'url': 'https://pokemondb.net/ability/poison-heal'}, {'name': 'Quick Feet', 'url': 'https://pokemondb.net/ability/quick-feet'}]</t>
+          <t>[{'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore'}, {'name': 'Poison Heal', 'url': 'https://pokemondb.net/ability/poison-heal'}, {'name': 'Quick Feet', 'url': 'https://pokemondb.net/ability/quick-feet', 'description': "raises the ability-bearer's Speed by 50% when inflicted by a major status ailment (poison, burn, paralysis, freeze or sleep). If paralyzed, the Pokémon does not suffer the usual drop in Speed."}]</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>[{'name': 'Wonder Guard', 'url': 'https://pokemondb.net/ability/wonder-guard'}]</t>
+          <t>[{'name': 'Wonder Guard', 'url': 'https://pokemondb.net/ability/wonder-guard', 'description': 'prevents damage from direct attacks unless they are super-effective. Shedinja is the only Pokémon to have this ability so this means that only'}]</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>[{'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}, {'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
+          <t>[{'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}, {'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts', 'description': "raises the ability-bearer's Attack by 50% when inflicted by a major status ailment (poison, burn, paralysis, freeze or sleep). If burnt, the Pokémon does not suffer the usual drop in Attack."}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force', 'description': 'increases the power of moves that have beneficial secondary effects by 30%, but removes those additional effects.'}]</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>[{'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm'}, {'name': 'Normalize', 'url': 'https://pokemondb.net/ability/normalize'}, {'name': 'Wonder Skin', 'url': 'https://pokemondb.net/ability/wonder-skin'}]</t>
+          <t>[{'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm'}, {'name': 'Normalize', 'url': 'https://pokemondb.net/ability/normalize', 'description': 'causes all moves used by the Pokémon to become'}, {'name': 'Wonder Skin', 'url': 'https://pokemondb.net/ability/wonder-skin'}]</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Stall', 'url': 'https://pokemondb.net/ability/stall'}, {'name': 'Prankster', 'url': 'https://pokemondb.net/ability/prankster'}, {'name': 'Magic Bounce', 'url': 'https://pokemondb.net/ability/magic-bounce'}]</t>
+          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Stall', 'url': 'https://pokemondb.net/ability/stall', 'description': 'The Pokémon moves after all other Pokémon do.'}, {'name': 'Prankster', 'url': 'https://pokemondb.net/ability/prankster'}, {'name': 'Magic Bounce', 'url': 'https://pokemondb.net/ability/magic-bounce'}]</t>
         </is>
       </c>
     </row>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>[{'name': 'Pure Power', 'url': 'https://pokemondb.net/ability/pure-power'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}]</t>
+          <t>[{'name': 'Pure Power', 'url': 'https://pokemondb.net/ability/pure-power', 'description': "Raises the Pokémon's Attack stat."}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}]</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>[{'name': 'Liquid Ooze', 'url': 'https://pokemondb.net/ability/liquid-ooze'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}]</t>
+          <t>[{'name': 'Liquid Ooze', 'url': 'https://pokemondb.net/ability/liquid-ooze', 'description': 'Damages attackers using any draining move.'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}]</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>[{'name': 'Hyper Cutter', 'url': 'https://pokemondb.net/ability/hyper-cutter'}, {'name': 'Arena Trap', 'url': 'https://pokemondb.net/ability/arena-trap'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
+          <t>[{'name': 'Hyper Cutter', 'url': 'https://pokemondb.net/ability/hyper-cutter'}, {'name': 'Arena Trap', 'url': 'https://pokemondb.net/ability/arena-trap', 'description': 'prevents opponents from fleeing or switching out.'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
         </is>
       </c>
     </row>
@@ -14541,7 +14541,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>[{'name': 'Immunity', 'url': 'https://pokemondb.net/ability/immunity'}, {'name': 'Toxic Boost', 'url': 'https://pokemondb.net/ability/toxic-boost'}]</t>
+          <t>[{'name': 'Immunity', 'url': 'https://pokemondb.net/ability/immunity', 'description': 'Prevents the Pokémon from getting poisoned.'}, {'name': 'Toxic Boost', 'url': 'https://pokemondb.net/ability/toxic-boost', 'description': 'Powers up physical attacks when poisoned.'}]</t>
         </is>
       </c>
     </row>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>[{'name': 'Marvel Scale', 'url': 'https://pokemondb.net/ability/marvel-scale'}, {'name': 'Competitive', 'url': 'https://pokemondb.net/ability/competitive'}, {'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm'}]</t>
+          <t>[{'name': 'Marvel Scale', 'url': 'https://pokemondb.net/ability/marvel-scale', 'description': "raises the ability-bearer's Defense by 50% when inflicted by a major status ailment (poison, burn, paralysis, freeze or sleep)."}, {'name': 'Competitive', 'url': 'https://pokemondb.net/ability/competitive'}, {'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm'}]</t>
         </is>
       </c>
     </row>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>[{'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast'}, {'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast'}, {'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast'}, {'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast'}]</t>
+          <t>[{'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast', 'description': 'Castform transforms with the weather.'}, {'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast', 'description': 'Castform transforms with the weather.'}, {'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast', 'description': 'Castform transforms with the weather.'}, {'name': 'Forecast', 'url': 'https://pokemondb.net/ability/forecast', 'description': 'Castform transforms with the weather.'}]</t>
         </is>
       </c>
     </row>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>[{'name': 'Color Change', 'url': 'https://pokemondb.net/ability/color-change'}, {'name': 'Protean', 'url': 'https://pokemondb.net/ability/protean'}]</t>
+          <t>[{'name': 'Color Change', 'url': 'https://pokemondb.net/ability/color-change', 'description': "changes the ability-bearer's type, when hit by a damage dealing move, to the type of that move. For example being hit by"}, {'name': 'Protean', 'url': 'https://pokemondb.net/ability/protean'}]</t>
         </is>
       </c>
     </row>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>[{'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Moxie', 'url': 'https://pokemondb.net/ability/moxie'}, {'name': 'Aerilate', 'url': 'https://pokemondb.net/ability/aerilate'}]</t>
+          <t>[{'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Moxie', 'url': 'https://pokemondb.net/ability/moxie'}, {'name': 'Aerilate', 'url': 'https://pokemondb.net/ability/aerilate', 'description': 'causes all'}]</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>[{'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}]</t>
+          <t>[{'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy', 'description': 'allows the Pokémon to survive with 1 HP if attacked at full HP with an attack that would otherwise knock it out. It also prevents One-Hit-KO moves ('}]</t>
         </is>
       </c>
     </row>
@@ -16347,7 +16347,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>[{'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body'}, {'name': 'Ice Body', 'url': 'https://pokemondb.net/ability/ice-body'}]</t>
+          <t>[{'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body'}, {'name': 'Ice Body', 'url': 'https://pokemondb.net/ability/ice-body', 'description': 'A Pokémon with'}]</t>
         </is>
       </c>
     </row>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>[{'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body'}, {'name': 'Light Metal', 'url': 'https://pokemondb.net/ability/light-metal'}]</t>
+          <t>[{'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body', 'description': 'Prevents other Pokémon from lowering its stats.'}, {'name': 'Light Metal', 'url': 'https://pokemondb.net/ability/light-metal', 'description': "halves the Pokémon's weight in battle. Decreasing weight affects these moves:"}]</t>
         </is>
       </c>
     </row>
@@ -16473,7 +16473,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>[{'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate'}, {'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate'}]</t>
+          <t>[{'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate', 'description': 'causes the Pokémon to be'}, {'name': 'Levitate', 'url': 'https://pokemondb.net/ability/levitate', 'description': 'causes the Pokémon to be'}]</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>[{'name': 'Drizzle', 'url': 'https://pokemondb.net/ability/drizzle'}, {'name': 'Primordial Sea', 'url': 'https://pokemondb.net/ability/primordial-sea'}]</t>
+          <t>[{'name': 'Drizzle', 'url': 'https://pokemondb.net/ability/drizzle', 'description': 'creates a rain shower when the ability-bearer enters battle. The effect lasts 5 turns, unless it is cleared via'}, {'name': 'Primordial Sea', 'url': 'https://pokemondb.net/ability/primordial-sea', 'description': 'creates heavy rain when the ability is activated (by Kyogre reverting to its Primal form).'}]</t>
         </is>
       </c>
     </row>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>[{'name': 'Drought', 'url': 'https://pokemondb.net/ability/drought'}, {'name': 'Desolate Land', 'url': 'https://pokemondb.net/ability/desolate-land'}]</t>
+          <t>[{'name': 'Drought', 'url': 'https://pokemondb.net/ability/drought'}, {'name': 'Desolate Land', 'url': 'https://pokemondb.net/ability/desolate-land', 'description': 'creates extremely harsh sunlight when the ability is activated (by Groudon reverting to its Primal form).'}]</t>
         </is>
       </c>
     </row>
@@ -16599,7 +16599,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>[{'name': 'Air Lock', 'url': 'https://pokemondb.net/ability/air-lock'}, {'name': 'Delta Stream', 'url': 'https://pokemondb.net/ability/delta-stream'}]</t>
+          <t>[{'name': 'Air Lock', 'url': 'https://pokemondb.net/ability/air-lock', 'description': 'suppresses'}, {'name': 'Delta Stream', 'url': 'https://pokemondb.net/ability/delta-stream', 'description': 'creates strong winds when the ability is activated (by Rayquaza Mega-Evolving).'}]</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>[{'name': 'Flower Gift', 'url': 'https://pokemondb.net/ability/flower-gift'}]</t>
+          <t>[{'name': 'Flower Gift', 'url': 'https://pokemondb.net/ability/flower-gift', 'description': 'raises the Attack and Special Defense of all party Pokémon by 50% during harsh sunlight.'}]</t>
         </is>
       </c>
     </row>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>[{'name': 'Aftermath', 'url': 'https://pokemondb.net/ability/aftermath'}, {'name': 'Unburden', 'url': 'https://pokemondb.net/ability/unburden'}, {'name': 'Flare Boost', 'url': 'https://pokemondb.net/ability/flare-boost'}]</t>
+          <t>[{'name': 'Aftermath', 'url': 'https://pokemondb.net/ability/aftermath'}, {'name': 'Unburden', 'url': 'https://pokemondb.net/ability/unburden'}, {'name': 'Flare Boost', 'url': 'https://pokemondb.net/ability/flare-boost', 'description': 'Powers up special attacks when burned.'}]</t>
         </is>
       </c>
     </row>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Tangled Feet', 'url': 'https://pokemondb.net/ability/tangled-feet'}, {'name': 'Big Pecks', 'url': 'https://pokemondb.net/ability/big-pecks'}]</t>
+          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Tangled Feet', 'url': 'https://pokemondb.net/ability/tangled-feet', 'description': 'Raises evasion if the Pokémon is confused.'}, {'name': 'Big Pecks', 'url': 'https://pokemondb.net/ability/big-pecks', 'description': "prevents the ability-bearer's Defense stat from being lowered, for example via"}]</t>
         </is>
       </c>
     </row>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator'}]</t>
+          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator', 'description': 'ignores the effects of'}]</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>[{'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Rough Skin', 'url': 'https://pokemondb.net/ability/rough-skin'}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force'}]</t>
+          <t>[{'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil', 'description': "raises the ability-bearer's evasion by 20% in a"}, {'name': 'Rough Skin', 'url': 'https://pokemondb.net/ability/rough-skin', 'description': 'When a Pokémon with'}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force', 'description': 'raises the power of'}]</t>
         </is>
       </c>
     </row>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>[{'name': 'Snow Warning', 'url': 'https://pokemondb.net/ability/snow-warning'}, {'name': 'Soundproof', 'url': 'https://pokemondb.net/ability/soundproof'}, {'name': 'Snow Warning', 'url': 'https://pokemondb.net/ability/snow-warning'}]</t>
+          <t>[{'name': 'Snow Warning', 'url': 'https://pokemondb.net/ability/snow-warning', 'description': 'creates a hailstorm when the ability-bearer enters battle. The effect lasts 5 turns, unless it is cleared via'}, {'name': 'Soundproof', 'url': 'https://pokemondb.net/ability/soundproof', 'description': 'grants the Pokémon immunity to all'}, {'name': 'Snow Warning', 'url': 'https://pokemondb.net/ability/snow-warning', 'description': 'creates a hailstorm when the ability-bearer enters battle. The effect lasts 5 turns, unless it is cleared via'}]</t>
         </is>
       </c>
     </row>
@@ -19833,7 +19833,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Pickpocket', 'url': 'https://pokemondb.net/ability/pickpocket'}]</t>
+          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure', 'description': 'makes any attack targeted at the ability-bearer - regardless of whether it hits - use 2 PP instead of 1.'}, {'name': 'Pickpocket', 'url': 'https://pokemondb.net/ability/pickpocket', 'description': 'Steals an item when hit by another Pokémon.'}]</t>
         </is>
       </c>
     </row>
@@ -20295,7 +20295,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>[{'name': 'Hyper Cutter', 'url': 'https://pokemondb.net/ability/hyper-cutter'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Poison Heal', 'url': 'https://pokemondb.net/ability/poison-heal'}]</t>
+          <t>[{'name': 'Hyper Cutter', 'url': 'https://pokemondb.net/ability/hyper-cutter'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Poison Heal', 'url': 'https://pokemondb.net/ability/poison-heal', 'description': 'Restores HP if the Pokémon is poisoned.'}]</t>
         </is>
       </c>
     </row>
@@ -20799,7 +20799,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}, {'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}]</t>
+          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy', 'description': 'Pokémon with the'}, {'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy', 'description': 'Pokémon with the'}]</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>[{'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}]</t>
+          <t>[{'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire', 'description': 'When a Pokémon with'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}]</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>[{'name': 'Slow Start', 'url': 'https://pokemondb.net/ability/slow-start'}]</t>
+          <t>[{'name': 'Slow Start', 'url': 'https://pokemondb.net/ability/slow-start', 'description': 'Temporarily halves Attack and Speed.'}]</t>
         </is>
       </c>
     </row>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>[{'name': 'Bad Dreams', 'url': 'https://pokemondb.net/ability/bad-dreams'}]</t>
+          <t>[{'name': 'Bad Dreams', 'url': 'https://pokemondb.net/ability/bad-dreams', 'description': 'causes all sleeping opponents to lose'}]</t>
         </is>
       </c>
     </row>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>[{'name': 'Multitype', 'url': 'https://pokemondb.net/ability/multitype'}]</t>
+          <t>[{'name': 'Multitype', 'url': 'https://pokemondb.net/ability/multitype', 'description': "changes the ability-bearer's type if it is holding one of the"}]</t>
         </is>
       </c>
     </row>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>[{'name': 'Victory Star', 'url': 'https://pokemondb.net/ability/victory-star'}]</t>
+          <t>[{'name': 'Victory Star', 'url': 'https://pokemondb.net/ability/victory-star', 'description': 'Boosts the accuracy of its allies and itself.'}]</t>
         </is>
       </c>
     </row>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor'}]</t>
+          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor', 'description': 'prevents the Pokémon from receiving a critical hit.'}]</t>
         </is>
       </c>
     </row>
@@ -22227,7 +22227,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>[{'name': 'Forewarn', 'url': 'https://pokemondb.net/ability/forewarn'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}]</t>
+          <t>[{'name': 'Forewarn', 'url': 'https://pokemondb.net/ability/forewarn', 'description': 'Determines what moves a foe has.'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}]</t>
         </is>
       </c>
     </row>
@@ -22563,7 +22563,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>[{'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Sand Stream', 'url': 'https://pokemondb.net/ability/sand-stream'}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force'}]</t>
+          <t>[{'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Sand Stream', 'url': 'https://pokemondb.net/ability/sand-stream', 'description': 'creates a sandstorm when the ability-bearer enters battle. The effect lasts 5 turns, unless it is cleared via'}, {'name': 'Sand Force', 'url': 'https://pokemondb.net/ability/sand-force'}]</t>
         </is>
       </c>
     </row>
@@ -22605,7 +22605,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>[{'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware'}, {'name': 'Klutz', 'url': 'https://pokemondb.net/ability/klutz'}, {'name': 'Simple', 'url': 'https://pokemondb.net/ability/simple'}]</t>
+          <t>[{'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware'}, {'name': 'Klutz', 'url': 'https://pokemondb.net/ability/klutz'}, {'name': 'Simple', 'url': 'https://pokemondb.net/ability/simple', 'description': 'The'}]</t>
         </is>
       </c>
     </row>
@@ -23361,7 +23361,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>[{'name': 'Poison Point', 'url': 'https://pokemondb.net/ability/poison-point'}, {'name': 'Swarm', 'url': 'https://pokemondb.net/ability/swarm'}, {'name': 'Speed Boost', 'url': 'https://pokemondb.net/ability/speed-boost'}]</t>
+          <t>[{'name': 'Poison Point', 'url': 'https://pokemondb.net/ability/poison-point', 'description': 'Contact with the Pokémon may poison the attacker.'}, {'name': 'Swarm', 'url': 'https://pokemondb.net/ability/swarm', 'description': 'increases the power of'}, {'name': 'Speed Boost', 'url': 'https://pokemondb.net/ability/speed-boost', 'description': 'Its Speed stat is gradually boosted.'}]</t>
         </is>
       </c>
     </row>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>[{'name': 'Prankster', 'url': 'https://pokemondb.net/ability/prankster'}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}]</t>
+          <t>[{'name': 'Prankster', 'url': 'https://pokemondb.net/ability/prankster', 'description': 'increases the priority of status moves by +1.'}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}]</t>
         </is>
       </c>
     </row>
@@ -23529,7 +23529,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Leaf Guard', 'url': 'https://pokemondb.net/ability/leaf-guard'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Leaf Guard', 'url': 'https://pokemondb.net/ability/leaf-guard'}]</t>
+          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo', 'description': 'Prevents the Pokémon from becoming confused.'}, {'name': 'Leaf Guard', 'url': 'https://pokemondb.net/ability/leaf-guard', 'description': 'prevents the bearer from succumbing to major status ailments (sleep, burns, poisoning, paralysis or freezing) during sunny weather.'}, {'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Leaf Guard', 'url': 'https://pokemondb.net/ability/leaf-guard', 'description': 'prevents the bearer from succumbing to major status ailments (sleep, burns, poisoning, paralysis or freezing) during sunny weather.'}]</t>
         </is>
       </c>
     </row>
@@ -23571,7 +23571,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>[{'name': 'Reckless', 'url': 'https://pokemondb.net/ability/reckless'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Rock Head', 'url': 'https://pokemondb.net/ability/rock-head'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Rattled', 'url': 'https://pokemondb.net/ability/rattled'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}]</t>
+          <t>[{'name': 'Reckless', 'url': 'https://pokemondb.net/ability/reckless', 'description': 'increases the power of'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability', 'description': 'increases the effectiveness of'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker', 'description': "prevents a target's ability from affecting moves that the"}, {'name': 'Rock Head', 'url': 'https://pokemondb.net/ability/rock-head', 'description': 'Protects the Pokémon from recoil damage.'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability', 'description': 'increases the effectiveness of'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker', 'description': "prevents a target's ability from affecting moves that the"}, {'name': 'Rattled', 'url': 'https://pokemondb.net/ability/rattled'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability', 'description': 'increases the effectiveness of'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker', 'description': "prevents a target's ability from affecting moves that the"}]</t>
         </is>
       </c>
     </row>
@@ -23781,7 +23781,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>[{'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode'}, {'name': 'Gorilla Tactics', 'url': 'https://pokemondb.net/ability/gorilla-tactics'}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode'}, {'name': 'Gorilla Tactics', 'url': 'https://pokemondb.net/ability/gorilla-tactics'}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode'}]</t>
+          <t>[{'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode', 'description': "changes the ability-bearer's form to"}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode', 'description': "changes the ability-bearer's form to"}, {'name': 'Gorilla Tactics', 'url': 'https://pokemondb.net/ability/gorilla-tactics', 'description': "Boosts the Pokémon's Attack stat but only allows the use of the first selected move."}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode', 'description': "changes the ability-bearer's form to"}, {'name': 'Gorilla Tactics', 'url': 'https://pokemondb.net/ability/gorilla-tactics', 'description': "Boosts the Pokémon's Attack stat but only allows the use of the first selected move."}, {'name': 'Zen Mode', 'url': 'https://pokemondb.net/ability/zen-mode', 'description': "changes the ability-bearer's form to"}]</t>
         </is>
       </c>
     </row>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>[{'name': 'Mummy', 'url': 'https://pokemondb.net/ability/mummy'}, {'name': 'Wandering Spirit', 'url': 'https://pokemondb.net/ability/wandering-spirit'}]</t>
+          <t>[{'name': 'Mummy', 'url': 'https://pokemondb.net/ability/mummy', 'description': 'Contact with this Pokémon spreads this Ability.'}, {'name': 'Wandering Spirit', 'url': 'https://pokemondb.net/ability/wandering-spirit', 'description': 'Swaps abilities with opponents on contact.'}]</t>
         </is>
       </c>
     </row>
@@ -24201,7 +24201,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>[{'name': 'Solid Rock', 'url': 'https://pokemondb.net/ability/solid-rock'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim'}]</t>
+          <t>[{'name': 'Solid Rock', 'url': 'https://pokemondb.net/ability/solid-rock', 'description': 'reduces the damage taken from super-effective attacks by 25%.'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim'}]</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>[{'name': 'Defeatist', 'url': 'https://pokemondb.net/ability/defeatist'}]</t>
+          <t>[{'name': 'Defeatist', 'url': 'https://pokemondb.net/ability/defeatist', 'description': 'When the HP of a Pokémon with'}]</t>
         </is>
       </c>
     </row>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>[{'name': 'Stench', 'url': 'https://pokemondb.net/ability/stench'}, {'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor'}, {'name': 'Aftermath', 'url': 'https://pokemondb.net/ability/aftermath'}]</t>
+          <t>[{'name': 'Stench', 'url': 'https://pokemondb.net/ability/stench', 'description': 'A Pokémon with'}, {'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor'}, {'name': 'Aftermath', 'url': 'https://pokemondb.net/ability/aftermath', 'description': 'If an attacker faints a Pokémon with'}]</t>
         </is>
       </c>
     </row>
@@ -24453,7 +24453,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>[{'name': 'Illusion', 'url': 'https://pokemondb.net/ability/illusion'}, {'name': 'Illusion', 'url': 'https://pokemondb.net/ability/illusion'}]</t>
+          <t>[{'name': 'Illusion', 'url': 'https://pokemondb.net/ability/illusion', 'description': 'When a Pokémon with the'}, {'name': 'Illusion', 'url': 'https://pokemondb.net/ability/illusion', 'description': 'When a Pokémon with the'}]</t>
         </is>
       </c>
     </row>
@@ -24663,7 +24663,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>[{'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Competitive', 'url': 'https://pokemondb.net/ability/competitive'}, {'name': 'Shadow Tag', 'url': 'https://pokemondb.net/ability/shadow-tag'}]</t>
+          <t>[{'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Competitive', 'url': 'https://pokemondb.net/ability/competitive'}, {'name': 'Shadow Tag', 'url': 'https://pokemondb.net/ability/shadow-tag', 'description': 'Prevents the foe from escaping.'}]</t>
         </is>
       </c>
     </row>
@@ -24789,7 +24789,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>[{'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat'}, {'name': 'Magic Guard', 'url': 'https://pokemondb.net/ability/magic-guard'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
+          <t>[{'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat'}, {'name': 'Magic Guard', 'url': 'https://pokemondb.net/ability/magic-guard', 'description': 'protects the Pokémon from indirect damage, including:'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
         </is>
       </c>
     </row>
@@ -25125,7 +25125,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Motor Drive', 'url': 'https://pokemondb.net/ability/motor-drive'}]</t>
+          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Motor Drive', 'url': 'https://pokemondb.net/ability/motor-drive', 'description': 'Raises Speed if hit by an Electric-type move.'}]</t>
         </is>
       </c>
     </row>
@@ -25293,7 +25293,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>[{'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
+          <t>[{'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore', 'description': 'Contact may poison or cause paralysis or sleep.'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
         </is>
       </c>
     </row>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>[{'name': 'Water Absorb', 'url': 'https://pokemondb.net/ability/water-absorb'}, {'name': 'Cursed Body', 'url': 'https://pokemondb.net/ability/cursed-body'}, {'name': 'Damp', 'url': 'https://pokemondb.net/ability/damp'}]</t>
+          <t>[{'name': 'Water Absorb', 'url': 'https://pokemondb.net/ability/water-absorb', 'description': 'A Pokémon with'}, {'name': 'Cursed Body', 'url': 'https://pokemondb.net/ability/cursed-body'}, {'name': 'Damp', 'url': 'https://pokemondb.net/ability/damp', 'description': 'prevents all Pokémon on the field from using the moves'}]</t>
         </is>
       </c>
     </row>
@@ -25419,7 +25419,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>[{'name': 'Healer', 'url': 'https://pokemondb.net/ability/healer'}, {'name': 'Hydration', 'url': 'https://pokemondb.net/ability/hydration'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
+          <t>[{'name': 'Healer', 'url': 'https://pokemondb.net/ability/healer', 'description': "May heal an ally's status conditions."}, {'name': 'Hydration', 'url': 'https://pokemondb.net/ability/hydration', 'description': 'A Pokémon with'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>[{'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Analytic', 'url': 'https://pokemondb.net/ability/analytic'}]</t>
+          <t>[{'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Analytic', 'url': 'https://pokemondb.net/ability/analytic', 'description': 'Boosts move power when the Pokémon moves last.'}]</t>
         </is>
       </c>
     </row>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Mimicry', 'url': 'https://pokemondb.net/ability/mimicry'}]</t>
+          <t>[{'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Mimicry', 'url': 'https://pokemondb.net/ability/mimicry', 'description': 'Changes type depending on the terrain.'}]</t>
         </is>
       </c>
     </row>
@@ -26847,7 +26847,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Tinted Lens', 'url': 'https://pokemondb.net/ability/tinted-lens'}]</t>
+          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant', 'description': "raises the ability-bearer's Attack by two stages when hit by a stat-lowering move."}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Tinted Lens', 'url': 'https://pokemondb.net/ability/tinted-lens'}]</t>
         </is>
       </c>
     </row>
@@ -27015,7 +27015,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>[{'name': 'Swarm', 'url': 'https://pokemondb.net/ability/swarm'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Truant', 'url': 'https://pokemondb.net/ability/truant'}]</t>
+          <t>[{'name': 'Swarm', 'url': 'https://pokemondb.net/ability/swarm'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Truant', 'url': 'https://pokemondb.net/ability/truant', 'description': 'causes the ability-bearer to only attack every alternate turn. On the even turns, it will say the Pokémon is'}]</t>
         </is>
       </c>
     </row>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Turboblaze', 'url': 'https://pokemondb.net/ability/turboblaze'}, {'name': 'Teravolt', 'url': 'https://pokemondb.net/ability/teravolt'}]</t>
+          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Turboblaze', 'url': 'https://pokemondb.net/ability/turboblaze', 'description': "prevents a target's ability from affecting moves that the"}, {'name': 'Teravolt', 'url': 'https://pokemondb.net/ability/teravolt', 'description': "prevents a target's ability from affecting moves that the"}]</t>
         </is>
       </c>
     </row>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>[{'name': 'Justified', 'url': 'https://pokemondb.net/ability/justified'}, {'name': 'Justified', 'url': 'https://pokemondb.net/ability/justified'}]</t>
+          <t>[{'name': 'Justified', 'url': 'https://pokemondb.net/ability/justified', 'description': "raises the ability-bearer's Attack by one stage when hit by a damaging"}, {'name': 'Justified', 'url': 'https://pokemondb.net/ability/justified', 'description': "raises the ability-bearer's Attack by one stage when hit by a damaging"}]</t>
         </is>
       </c>
     </row>
@@ -27729,7 +27729,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>[{'name': 'Download', 'url': 'https://pokemondb.net/ability/download'}]</t>
+          <t>[{'name': 'Download', 'url': 'https://pokemondb.net/ability/download', 'description': "raises either the bearer's Attack or Special Attack by one stage when switching into battle, base on the opponent's defenses."}]</t>
         </is>
       </c>
     </row>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Bulletproof', 'url': 'https://pokemondb.net/ability/bulletproof'}]</t>
+          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Bulletproof', 'url': 'https://pokemondb.net/ability/bulletproof', 'description': 'makes the Pokémon immune to'}]</t>
         </is>
       </c>
     </row>
@@ -27897,7 +27897,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze'}, {'name': 'Magician', 'url': 'https://pokemondb.net/ability/magician'}]</t>
+          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze'}, {'name': 'Magician', 'url': 'https://pokemondb.net/ability/magician', 'description': 'The Pokémon steals the held item of a Pokémon it hits with a move.'}]</t>
         </is>
       </c>
     </row>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Protean', 'url': 'https://pokemondb.net/ability/protean'}, {'name': 'Battle Bond', 'url': 'https://pokemondb.net/ability/battle-bond'}]</t>
+          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Protean', 'url': 'https://pokemondb.net/ability/protean'}, {'name': 'Battle Bond', 'url': 'https://pokemondb.net/ability/battle-bond', 'description': 'causes Greninja to transform into Ash-Greninja when it KOs an opponent.'}]</t>
         </is>
       </c>
     </row>
@@ -28191,7 +28191,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>[{'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup'}, {'name': 'Cheek Pouch', 'url': 'https://pokemondb.net/ability/cheek-pouch'}, {'name': 'Huge Power', 'url': 'https://pokemondb.net/ability/huge-power'}]</t>
+          <t>[{'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup'}, {'name': 'Cheek Pouch', 'url': 'https://pokemondb.net/ability/cheek-pouch'}, {'name': 'Huge Power', 'url': 'https://pokemondb.net/ability/huge-power', 'description': "Raises the Pokémon's Attack stat."}]</t>
         </is>
       </c>
     </row>
@@ -28317,7 +28317,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>[{'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}, {'name': 'Gale Wings', 'url': 'https://pokemondb.net/ability/gale-wings'}]</t>
+          <t>[{'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}, {'name': 'Gale Wings', 'url': 'https://pokemondb.net/ability/gale-wings', 'description': 'Gives priority to Flying-type moves.'}]</t>
         </is>
       </c>
     </row>
@@ -28527,7 +28527,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>[{'name': 'Rivalry', 'url': 'https://pokemondb.net/ability/rivalry'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': 'Moxie', 'url': 'https://pokemondb.net/ability/moxie'}]</t>
+          <t>[{'name': 'Rivalry', 'url': 'https://pokemondb.net/ability/rivalry', 'description': 'Deals more damage to a Pokémon of same gender.'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': 'Moxie', 'url': 'https://pokemondb.net/ability/moxie'}]</t>
         </is>
       </c>
     </row>
@@ -28737,7 +28737,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>[{'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}, {'name': 'Grass Pelt', 'url': 'https://pokemondb.net/ability/grass-pelt'}]</t>
+          <t>[{'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}, {'name': 'Grass Pelt', 'url': 'https://pokemondb.net/ability/grass-pelt', 'description': 'Boosts the Defense stat in Grassy Terrain.'}]</t>
         </is>
       </c>
     </row>
@@ -29073,7 +29073,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>[{'name': 'Stance Change', 'url': 'https://pokemondb.net/ability/stance-change'}, {'name': 'Stance Change', 'url': 'https://pokemondb.net/ability/stance-change'}]</t>
+          <t>[{'name': 'Stance Change', 'url': 'https://pokemondb.net/ability/stance-change', 'description': 'is exclusive to'}, {'name': 'Stance Change', 'url': 'https://pokemondb.net/ability/stance-change', 'description': 'is exclusive to'}]</t>
         </is>
       </c>
     </row>
@@ -29115,7 +29115,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>[{'name': 'Healer', 'url': 'https://pokemondb.net/ability/healer'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil'}]</t>
+          <t>[{'name': 'Healer', 'url': 'https://pokemondb.net/ability/healer'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil', 'description': 'Protects allies from attacks that limit their move choices.'}]</t>
         </is>
       </c>
     </row>
@@ -29325,7 +29325,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>[{'name': 'Contrary', 'url': 'https://pokemondb.net/ability/contrary'}, {'name': 'Suction Cups', 'url': 'https://pokemondb.net/ability/suction-cups'}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator'}]</t>
+          <t>[{'name': 'Contrary', 'url': 'https://pokemondb.net/ability/contrary'}, {'name': 'Suction Cups', 'url': 'https://pokemondb.net/ability/suction-cups', 'description': 'prevents opponents forcing the ability-bearer to switch out or flee via the moves'}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator'}]</t>
         </is>
       </c>
     </row>
@@ -29661,7 +29661,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>[{'name': 'Dry Skin', 'url': 'https://pokemondb.net/ability/dry-skin'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Solar Power', 'url': 'https://pokemondb.net/ability/solar-power'}]</t>
+          <t>[{'name': 'Dry Skin', 'url': 'https://pokemondb.net/ability/dry-skin', 'description': 'causes several effects:'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}, {'name': 'Solar Power', 'url': 'https://pokemondb.net/ability/solar-power'}]</t>
         </is>
       </c>
     </row>
@@ -29829,7 +29829,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>[{'name': 'Refrigerate', 'url': 'https://pokemondb.net/ability/refrigerate'}, {'name': 'Snow Warning', 'url': 'https://pokemondb.net/ability/snow-warning'}]</t>
+          <t>[{'name': 'Refrigerate', 'url': 'https://pokemondb.net/ability/refrigerate', 'description': 'causes all'}, {'name': 'Snow Warning', 'url': 'https://pokemondb.net/ability/snow-warning'}]</t>
         </is>
       </c>
     </row>
@@ -29871,7 +29871,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>[{'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm'}, {'name': 'Pixilate', 'url': 'https://pokemondb.net/ability/pixilate'}]</t>
+          <t>[{'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm'}, {'name': 'Pixilate', 'url': 'https://pokemondb.net/ability/pixilate', 'description': 'causes all'}]</t>
         </is>
       </c>
     </row>
@@ -30081,7 +30081,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>[{'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}, {'name': 'Hydration', 'url': 'https://pokemondb.net/ability/hydration'}, {'name': 'Gooey', 'url': 'https://pokemondb.net/ability/gooey'}, {'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor'}, {'name': 'Gooey', 'url': 'https://pokemondb.net/ability/gooey'}]</t>
+          <t>[{'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper', 'description': 'Boosts Attack when hit by a Grass-type move.'}, {'name': 'Hydration', 'url': 'https://pokemondb.net/ability/hydration'}, {'name': 'Gooey', 'url': 'https://pokemondb.net/ability/gooey', 'description': "Contact with the Pokémon lowers the attacker's Speed stat."}, {'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper', 'description': 'Boosts Attack when hit by a Grass-type move.'}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor'}, {'name': 'Gooey', 'url': 'https://pokemondb.net/ability/gooey', 'description': "Contact with the Pokémon lowers the attacker's Speed stat."}]</t>
         </is>
       </c>
     </row>
@@ -30291,7 +30291,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>[{'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}, {'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}, {'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}, {'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}]</t>
+          <t>[{'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup', 'description': 'When another Pokémon on the field uses a single-use held item, a Pokémon with'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia', 'description': 'prevents the ability-bearer from falling asleep, both from moves by other Pokémon like'}, {'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup', 'description': 'When another Pokémon on the field uses a single-use held item, a Pokémon with'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia', 'description': 'prevents the ability-bearer from falling asleep, both from moves by other Pokémon like'}, {'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup', 'description': 'When another Pokémon on the field uses a single-use held item, a Pokémon with'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia', 'description': 'prevents the ability-bearer from falling asleep, both from moves by other Pokémon like'}, {'name': 'Pickup', 'url': 'https://pokemondb.net/ability/pickup', 'description': 'When another Pokémon on the field uses a single-use held item, a Pokémon with'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia', 'description': 'prevents the ability-bearer from falling asleep, both from moves by other Pokémon like'}]</t>
         </is>
       </c>
     </row>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>[{'name': 'Fairy Aura', 'url': 'https://pokemondb.net/ability/fairy-aura'}]</t>
+          <t>[{'name': 'Fairy Aura', 'url': 'https://pokemondb.net/ability/fairy-aura', 'description': 'raises the power of Fairy-type moves by 33%, for all Pokémon on the field (not just the ability-bearer).'}]</t>
         </is>
       </c>
     </row>
@@ -30585,7 +30585,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>[{'name': 'Dark Aura', 'url': 'https://pokemondb.net/ability/dark-aura'}]</t>
+          <t>[{'name': 'Dark Aura', 'url': 'https://pokemondb.net/ability/dark-aura', 'description': 'raises the power of Dark-type moves by 33% for all Pokémon on the field (not just the ability-bearer).'}]</t>
         </is>
       </c>
     </row>
@@ -30627,7 +30627,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>[{'name': 'Aura Break', 'url': 'https://pokemondb.net/ability/aura-break'}, {'name': 'Power Construct', 'url': 'https://pokemondb.net/ability/power-construct'}, {'name': 'Aura Break', 'url': 'https://pokemondb.net/ability/aura-break'}, {'name': 'Power Construct', 'url': 'https://pokemondb.net/ability/power-construct'}, {'name': 'Power Construct', 'url': 'https://pokemondb.net/ability/power-construct'}]</t>
+          <t>[{'name': 'Aura Break', 'url': 'https://pokemondb.net/ability/aura-break', 'description': 'cancels the effects of the abilities'}, {'name': 'Power Construct', 'url': 'https://pokemondb.net/ability/power-construct', 'description': 'is unique to Zygarde. When Zygarde 10% Forme or Zygarde 50% Forme falls below half HP, it changes into Zygarde Complete Forme.'}, {'name': 'Aura Break', 'url': 'https://pokemondb.net/ability/aura-break', 'description': 'cancels the effects of the abilities'}, {'name': 'Power Construct', 'url': 'https://pokemondb.net/ability/power-construct', 'description': 'is unique to Zygarde. When Zygarde 10% Forme or Zygarde 50% Forme falls below half HP, it changes into Zygarde Complete Forme.'}, {'name': 'Power Construct', 'url': 'https://pokemondb.net/ability/power-construct', 'description': 'is unique to Zygarde. When Zygarde 10% Forme or Zygarde 50% Forme falls below half HP, it changes into Zygarde Complete Forme.'}]</t>
         </is>
       </c>
     </row>
@@ -30879,7 +30879,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Long Reach', 'url': 'https://pokemondb.net/ability/long-reach'}, {'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy'}]</t>
+          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Long Reach', 'url': 'https://pokemondb.net/ability/long-reach', 'description': 'The Pokémon uses its moves without making contact with the target.'}, {'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy'}]</t>
         </is>
       </c>
     </row>
@@ -31089,7 +31089,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Liquid Voice', 'url': 'https://pokemondb.net/ability/liquid-voice'}]</t>
+          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Liquid Voice', 'url': 'https://pokemondb.net/ability/liquid-voice', 'description': 'causes all'}]</t>
         </is>
       </c>
     </row>
@@ -31257,7 +31257,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Skill Link', 'url': 'https://pokemondb.net/ability/skill-link'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
+          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Skill Link', 'url': 'https://pokemondb.net/ability/skill-link', 'description': 'causes multi-strike moves to always hit their maximum number of times. The moves affected are listed below; note that moves such as'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
         </is>
       </c>
     </row>
@@ -31425,7 +31425,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>[{'name': 'Battery', 'url': 'https://pokemondb.net/ability/battery'}]</t>
+          <t>[{'name': 'Battery', 'url': 'https://pokemondb.net/ability/battery', 'description': "allows the Pokémon to raise the power of teammates' special moves."}]</t>
         </is>
       </c>
     </row>
@@ -31551,7 +31551,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>[{'name': 'Hyper Cutter', 'url': 'https://pokemondb.net/ability/hyper-cutter'}, {'name': 'Iron Fist', 'url': 'https://pokemondb.net/ability/iron-fist'}, {'name': 'Anger Point', 'url': 'https://pokemondb.net/ability/anger-point'}]</t>
+          <t>[{'name': 'Hyper Cutter', 'url': 'https://pokemondb.net/ability/hyper-cutter', 'description': "prevents the bearer's Attack stat from being lowered by other Pokémon, through moves such as"}, {'name': 'Iron Fist', 'url': 'https://pokemondb.net/ability/iron-fist'}, {'name': 'Anger Point', 'url': 'https://pokemondb.net/ability/anger-point', 'description': "raises the ability-bearer's Attack to its maximum level - +6 stages or 4× usual power - when a move targeting it receives a critical hit."}]</t>
         </is>
       </c>
     </row>
@@ -31593,7 +31593,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>[{'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer'}, {'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer'}, {'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer'}, {'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer'}]</t>
+          <t>[{'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer', 'description': 'When another Pokémon on the field uses any'}, {'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer', 'description': 'When another Pokémon on the field uses any'}, {'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer', 'description': 'When another Pokémon on the field uses any'}, {'name': 'Dancer', 'url': 'https://pokemondb.net/ability/dancer', 'description': 'When another Pokémon on the field uses any'}]</t>
         </is>
       </c>
     </row>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>[{'name': 'Honey Gather', 'url': 'https://pokemondb.net/ability/honey-gather'}, {'name': 'Shield Dust', 'url': 'https://pokemondb.net/ability/shield-dust'}, {'name': 'Sweet Veil', 'url': 'https://pokemondb.net/ability/sweet-veil'}]</t>
+          <t>[{'name': 'Honey Gather', 'url': 'https://pokemondb.net/ability/honey-gather', 'description': 'has no effect in battle.'}, {'name': 'Shield Dust', 'url': 'https://pokemondb.net/ability/shield-dust'}, {'name': 'Sweet Veil', 'url': 'https://pokemondb.net/ability/sweet-veil'}]</t>
         </is>
       </c>
     </row>
@@ -31761,7 +31761,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Sand Rush', 'url': 'https://pokemondb.net/ability/sand-rush'}, {'name': 'Steadfast', 'url': 'https://pokemondb.net/ability/steadfast'}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Vital Spirit', 'url': 'https://pokemondb.net/ability/vital-spirit'}, {'name': 'No Guard', 'url': 'https://pokemondb.net/ability/no-guard'}, {'name': 'Tough Claws', 'url': 'https://pokemondb.net/ability/tough-claws'}]</t>
+          <t>[{'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Sand Rush', 'url': 'https://pokemondb.net/ability/sand-rush'}, {'name': 'Steadfast', 'url': 'https://pokemondb.net/ability/steadfast'}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Vital Spirit', 'url': 'https://pokemondb.net/ability/vital-spirit'}, {'name': 'No Guard', 'url': 'https://pokemondb.net/ability/no-guard', 'description': 'ensures that all attacks used by, and targeted at, the ability-bearer hit without fail.'}, {'name': 'Tough Claws', 'url': 'https://pokemondb.net/ability/tough-claws'}]</t>
         </is>
       </c>
     </row>
@@ -31803,7 +31803,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>[{'name': 'Schooling', 'url': 'https://pokemondb.net/ability/schooling'}, {'name': 'Schooling', 'url': 'https://pokemondb.net/ability/schooling'}]</t>
+          <t>[{'name': 'Schooling', 'url': 'https://pokemondb.net/ability/schooling', 'description': 'changes Wishiwashi into its School Form, if its HP is above 25% and Wishiwashi is at least level 20. If its HP falls below 25%, Wishiwashi will revert back to Solo Form.'}, {'name': 'Schooling', 'url': 'https://pokemondb.net/ability/schooling', 'description': 'changes Wishiwashi into its School Form, if its HP is above 25% and Wishiwashi is at least level 20. If its HP falls below 25%, Wishiwashi will revert back to Solo Form.'}]</t>
         </is>
       </c>
     </row>
@@ -31887,7 +31887,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>[{'name': 'Merciless', 'url': 'https://pokemondb.net/ability/merciless'}, {'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
+          <t>[{'name': 'Merciless', 'url': 'https://pokemondb.net/ability/merciless', 'description': "The Pokémon's attacks become critical hits if the target is poisoned."}, {'name': 'Limber', 'url': 'https://pokemondb.net/ability/limber'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
         </is>
       </c>
     </row>
@@ -32055,7 +32055,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>[{'name': 'Water Bubble', 'url': 'https://pokemondb.net/ability/water-bubble'}, {'name': 'Water Absorb', 'url': 'https://pokemondb.net/ability/water-absorb'}]</t>
+          <t>[{'name': 'Water Bubble', 'url': 'https://pokemondb.net/ability/water-bubble', 'description': 'reduces damage taken from Fire-type moves by 50%, and doubles the power of Water-type moves used by the ability-bearer. It also prevents the Pokémon from being burned.'}, {'name': 'Water Absorb', 'url': 'https://pokemondb.net/ability/water-absorb'}]</t>
         </is>
       </c>
     </row>
@@ -32223,7 +32223,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>[{'name': 'Illuminate', 'url': 'https://pokemondb.net/ability/illuminate'}, {'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore'}, {'name': 'Rain Dish', 'url': 'https://pokemondb.net/ability/rain-dish'}]</t>
+          <t>[{'name': 'Illuminate', 'url': 'https://pokemondb.net/ability/illuminate', 'description': 'has no effect in battle.'}, {'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore'}, {'name': 'Rain Dish', 'url': 'https://pokemondb.net/ability/rain-dish'}]</t>
         </is>
       </c>
     </row>
@@ -32517,7 +32517,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>[{'name': 'Leaf Guard', 'url': 'https://pokemondb.net/ability/leaf-guard'}, {'name': 'Queenly Majesty', 'url': 'https://pokemondb.net/ability/queenly-majesty'}, {'name': 'Sweet Veil', 'url': 'https://pokemondb.net/ability/sweet-veil'}]</t>
+          <t>[{'name': 'Leaf Guard', 'url': 'https://pokemondb.net/ability/leaf-guard'}, {'name': 'Queenly Majesty', 'url': 'https://pokemondb.net/ability/queenly-majesty', 'description': 'Prevents use of priority moves.'}, {'name': 'Sweet Veil', 'url': 'https://pokemondb.net/ability/sweet-veil'}]</t>
         </is>
       </c>
     </row>
@@ -32559,7 +32559,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>[{'name': 'Flower Veil', 'url': 'https://pokemondb.net/ability/flower-veil'}, {'name': 'Triage', 'url': 'https://pokemondb.net/ability/triage'}, {'name': 'Natural Cure', 'url': 'https://pokemondb.net/ability/natural-cure'}]</t>
+          <t>[{'name': 'Flower Veil', 'url': 'https://pokemondb.net/ability/flower-veil', 'description': "prevents ally Grass-type Pokémon's stats from being lowered, in double and triple battles."}, {'name': 'Triage', 'url': 'https://pokemondb.net/ability/triage', 'description': 'increases the priority of HP-restoring moves to +3, when used by the ability-bearer.'}, {'name': 'Natural Cure', 'url': 'https://pokemondb.net/ability/natural-cure'}]</t>
         </is>
       </c>
     </row>
@@ -32601,7 +32601,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>[{'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}, {'name': 'Symbiosis', 'url': 'https://pokemondb.net/ability/symbiosis'}]</t>
+          <t>[{'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}, {'name': 'Symbiosis', 'url': 'https://pokemondb.net/ability/symbiosis', 'description': 'The Pokémon can pass an item to an ally.'}]</t>
         </is>
       </c>
     </row>
@@ -32643,7 +32643,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>[{'name': 'Receiver', 'url': 'https://pokemondb.net/ability/receiver'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}]</t>
+          <t>[{'name': 'Receiver', 'url': 'https://pokemondb.net/ability/receiver', 'description': 'A Pokémon with'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}]</t>
         </is>
       </c>
     </row>
@@ -32685,7 +32685,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>[{'name': 'Wimp Out', 'url': 'https://pokemondb.net/ability/wimp-out'}]</t>
+          <t>[{'name': 'Wimp Out', 'url': 'https://pokemondb.net/ability/wimp-out', 'description': 'causes the bearer to switch out (or flee in a wild battle) when its HP falls below 50%.'}]</t>
         </is>
       </c>
     </row>
@@ -32727,7 +32727,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>[{'name': 'Emergency Exit', 'url': 'https://pokemondb.net/ability/emergency-exit'}]</t>
+          <t>[{'name': 'Emergency Exit', 'url': 'https://pokemondb.net/ability/emergency-exit', 'description': 'Switches out when HP falls below 50%.'}]</t>
         </is>
       </c>
     </row>
@@ -32769,7 +32769,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>[{'name': 'Water Compaction', 'url': 'https://pokemondb.net/ability/water-compaction'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}]</t>
+          <t>[{'name': 'Water Compaction', 'url': 'https://pokemondb.net/ability/water-compaction', 'description': "raises the bearer's Defense by 2 stages when it is hit by a Water-type move."}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}]</t>
         </is>
       </c>
     </row>
@@ -32853,7 +32853,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>[{'name': 'Innards Out', 'url': 'https://pokemondb.net/ability/innards-out'}, {'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware'}]</t>
+          <t>[{'name': 'Innards Out', 'url': 'https://pokemondb.net/ability/innards-out', 'description': 'When a Pokémon with'}, {'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware'}]</t>
         </is>
       </c>
     </row>
@@ -32937,7 +32937,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>[{'name': 'RKS System', 'url': 'https://pokemondb.net/ability/rks-system'}]</t>
+          <t>[{'name': 'RKS System', 'url': 'https://pokemondb.net/ability/rks-system', 'description': 'Changes type depending on held item.'}]</t>
         </is>
       </c>
     </row>
@@ -32979,7 +32979,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>[{'name': 'Shields Down', 'url': 'https://pokemondb.net/ability/shields-down'}, {'name': 'Shields Down', 'url': 'https://pokemondb.net/ability/shields-down'}]</t>
+          <t>[{'name': 'Shields Down', 'url': 'https://pokemondb.net/ability/shields-down', 'description': 'causes the Pokémon to changes its appearance and stats depending on its remaining HP.'}, {'name': 'Shields Down', 'url': 'https://pokemondb.net/ability/shields-down', 'description': 'causes the Pokémon to changes its appearance and stats depending on its remaining HP.'}]</t>
         </is>
       </c>
     </row>
@@ -33021,7 +33021,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>[{'name': 'Comatose', 'url': 'https://pokemondb.net/ability/comatose'}]</t>
+          <t>[{'name': 'Comatose', 'url': 'https://pokemondb.net/ability/comatose', 'description': "causes the Pokémon to behave as if it were asleep, though it doesn't officially have the Sleep status condition. It can still use its regular moves, but cannot be inflicted with any major status condition (sleep, poison, paralysis, burn, or freeze)."}]</t>
         </is>
       </c>
     </row>
@@ -33105,7 +33105,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>[{'name': 'Iron Barbs', 'url': 'https://pokemondb.net/ability/iron-barbs'}, {'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}]</t>
+          <t>[{'name': 'Iron Barbs', 'url': 'https://pokemondb.net/ability/iron-barbs', 'description': 'When a Pokémon with'}, {'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}]</t>
         </is>
       </c>
     </row>
@@ -33147,7 +33147,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>[{'name': 'Disguise', 'url': 'https://pokemondb.net/ability/disguise'}]</t>
+          <t>[{'name': 'Disguise', 'url': 'https://pokemondb.net/ability/disguise', 'description': 'allows the bearer to avoid damage for one attack, in a similar way to'}]</t>
         </is>
       </c>
     </row>
@@ -33189,7 +33189,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>[{'name': 'Dazzling', 'url': 'https://pokemondb.net/ability/dazzling'}, {'name': 'Strong Jaw', 'url': 'https://pokemondb.net/ability/strong-jaw'}, {'name': 'Wonder Skin', 'url': 'https://pokemondb.net/ability/wonder-skin'}]</t>
+          <t>[{'name': 'Dazzling', 'url': 'https://pokemondb.net/ability/dazzling', 'description': 'makes the Pokémon immune to high-priority moves (i.e. those with a priority above 0).'}, {'name': 'Strong Jaw', 'url': 'https://pokemondb.net/ability/strong-jaw', 'description': 'increases the power of all'}, {'name': 'Wonder Skin', 'url': 'https://pokemondb.net/ability/wonder-skin', 'description': 'halves the accuracy of all status moves targeted at the ability-bearer.'}]</t>
         </is>
       </c>
     </row>
@@ -33231,7 +33231,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>[{'name': 'Berserk', 'url': 'https://pokemondb.net/ability/berserk'}, {'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}, {'name': 'Cloud Nine', 'url': 'https://pokemondb.net/ability/cloud-nine'}]</t>
+          <t>[{'name': 'Berserk', 'url': 'https://pokemondb.net/ability/berserk', 'description': "raises the Pokémon's Special Attack by one stage when its HP falls below 50%."}, {'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}, {'name': 'Cloud Nine', 'url': 'https://pokemondb.net/ability/cloud-nine', 'description': 'suppresses'}]</t>
         </is>
       </c>
     </row>
@@ -33273,7 +33273,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>[{'name': 'Steelworker', 'url': 'https://pokemondb.net/ability/steelworker'}]</t>
+          <t>[{'name': 'Steelworker', 'url': 'https://pokemondb.net/ability/steelworker', 'description': 'increases the power of Steel-type moves used by this Pokémon by 50%.'}]</t>
         </is>
       </c>
     </row>
@@ -33567,7 +33567,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>[{'name': 'Misty Surge', 'url': 'https://pokemondb.net/ability/misty-surge'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}]</t>
+          <t>[{'name': 'Misty Surge', 'url': 'https://pokemondb.net/ability/misty-surge', 'description': 'creates a low-lying mist, like the move'}, {'name': 'Telepathy', 'url': 'https://pokemondb.net/ability/telepathy'}]</t>
         </is>
       </c>
     </row>
@@ -33693,7 +33693,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>[{'name': 'Full Metal Body', 'url': 'https://pokemondb.net/ability/full-metal-body'}]</t>
+          <t>[{'name': 'Full Metal Body', 'url': 'https://pokemondb.net/ability/full-metal-body', 'description': 'Prevents other Pokémon from lowering its stats.'}]</t>
         </is>
       </c>
     </row>
@@ -33735,7 +33735,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>[{'name': 'Shadow Shield', 'url': 'https://pokemondb.net/ability/shadow-shield'}]</t>
+          <t>[{'name': 'Shadow Shield', 'url': 'https://pokemondb.net/ability/shadow-shield', 'description': 'Reduces damage when HP is full.'}]</t>
         </is>
       </c>
     </row>
@@ -33987,7 +33987,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>[{'name': 'Beast Boost', 'url': 'https://pokemondb.net/ability/beast-boost'}]</t>
+          <t>[{'name': 'Beast Boost', 'url': 'https://pokemondb.net/ability/beast-boost', 'description': 'The Pokémon boosts its most proficient stat each time it knocks out a Pokémon.'}]</t>
         </is>
       </c>
     </row>
@@ -34071,7 +34071,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>[{'name': 'Prism Armor', 'url': 'https://pokemondb.net/ability/prism-armor'}, {'name': 'Prism Armor', 'url': 'https://pokemondb.net/ability/prism-armor'}, {'name': 'Prism Armor', 'url': 'https://pokemondb.net/ability/prism-armor'}, {'name': 'Neuroforce', 'url': 'https://pokemondb.net/ability/neuroforce'}]</t>
+          <t>[{'name': 'Prism Armor', 'url': 'https://pokemondb.net/ability/prism-armor', 'description': 'reduces the damage taken from super-effective attacks by 25%. It is not affected by the abilities'}, {'name': 'Prism Armor', 'url': 'https://pokemondb.net/ability/prism-armor', 'description': 'reduces the damage taken from super-effective attacks by 25%. It is not affected by the abilities'}, {'name': 'Prism Armor', 'url': 'https://pokemondb.net/ability/prism-armor', 'description': 'reduces the damage taken from super-effective attacks by 25%. It is not affected by the abilities'}, {'name': 'Neuroforce', 'url': 'https://pokemondb.net/ability/neuroforce', 'description': 'Powers up moves that are super effective.'}]</t>
         </is>
       </c>
     </row>
@@ -34113,7 +34113,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>[{'name': 'Soul-Heart', 'url': 'https://pokemondb.net/ability/soul-heart'}]</t>
+          <t>[{'name': 'Soul-Heart', 'url': 'https://pokemondb.net/ability/soul-heart', 'description': "raises the bearer's Special Attack one stage when any Pokémon on the field faints."}]</t>
         </is>
       </c>
     </row>
@@ -34407,7 +34407,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>[{'name': 'Magnet Pull', 'url': 'https://pokemondb.net/ability/magnet-pull'}]</t>
+          <t>[{'name': 'Magnet Pull', 'url': 'https://pokemondb.net/ability/magnet-pull', 'description': 'prevents'}]</t>
         </is>
       </c>
     </row>
@@ -34449,7 +34449,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>[{'name': 'Iron Fist', 'url': 'https://pokemondb.net/ability/iron-fist'}]</t>
+          <t>[{'name': 'Iron Fist', 'url': 'https://pokemondb.net/ability/iron-fist', 'description': 'increases the power of all'}]</t>
         </is>
       </c>
     </row>
@@ -34575,7 +34575,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Grassy Surge', 'url': 'https://pokemondb.net/ability/grassy-surge'}]</t>
+          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Grassy Surge', 'url': 'https://pokemondb.net/ability/grassy-surge', 'description': 'creates a low-lying grassy field, like the move'}]</t>
         </is>
       </c>
     </row>
@@ -34701,7 +34701,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze'}, {'name': 'Libero', 'url': 'https://pokemondb.net/ability/libero'}]</t>
+          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze'}, {'name': 'Libero', 'url': 'https://pokemondb.net/ability/libero', 'description': "changes the Pokémon's type to that of its previously used attack."}]</t>
         </is>
       </c>
     </row>
@@ -34827,7 +34827,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Sniper', 'url': 'https://pokemondb.net/ability/sniper'}]</t>
+          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Sniper', 'url': 'https://pokemondb.net/ability/sniper', 'description': 'increases the power of critical hits by 1.5×. This means a critical hit will deal'}]</t>
         </is>
       </c>
     </row>
@@ -35037,7 +35037,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': 'Mirror Armor', 'url': 'https://pokemondb.net/ability/mirror-armor'}]</t>
+          <t>[{'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': 'Mirror Armor', 'url': 'https://pokemondb.net/ability/mirror-armor', 'description': 'Reflects any stat-lowering effects.'}]</t>
         </is>
       </c>
     </row>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>[{'name': 'Cotton Down', 'url': 'https://pokemondb.net/ability/cotton-down'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore'}]</t>
+          <t>[{'name': 'Cotton Down', 'url': 'https://pokemondb.net/ability/cotton-down', 'description': 'When a Pokémon with'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Effect Spore', 'url': 'https://pokemondb.net/ability/effect-spore'}]</t>
         </is>
       </c>
     </row>
@@ -35541,7 +35541,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>[{'name': 'Ball Fetch', 'url': 'https://pokemondb.net/ability/ball-fetch'}, {'name': 'Rattled', 'url': 'https://pokemondb.net/ability/rattled'}]</t>
+          <t>[{'name': 'Ball Fetch', 'url': 'https://pokemondb.net/ability/ball-fetch', 'description': 'If the Pokémon is not holding an item, it will fetch the Poké Ball from the first failed throw of the battle.'}, {'name': 'Rattled', 'url': 'https://pokemondb.net/ability/rattled'}]</t>
         </is>
       </c>
     </row>
@@ -35709,7 +35709,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>[{'name': 'Steam Engine', 'url': 'https://pokemondb.net/ability/steam-engine'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}, {'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire'}]</t>
+          <t>[{'name': 'Steam Engine', 'url': 'https://pokemondb.net/ability/steam-engine', 'description': "raises the user's Speed by three stages when it is hit by a Fire- or Water-type attack. The attack still deals damage."}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}, {'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire'}]</t>
         </is>
       </c>
     </row>
@@ -35835,7 +35835,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>[{'name': 'Ripen', 'url': 'https://pokemondb.net/ability/ripen'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}]</t>
+          <t>[{'name': 'Ripen', 'url': 'https://pokemondb.net/ability/ripen', 'description': 'Doubles the effect of berries.'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}]</t>
         </is>
       </c>
     </row>
@@ -35919,7 +35919,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>[{'name': 'Sand Spit', 'url': 'https://pokemondb.net/ability/sand-spit'}, {'name': 'Shed Skin', 'url': 'https://pokemondb.net/ability/shed-skin'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}]</t>
+          <t>[{'name': 'Sand Spit', 'url': 'https://pokemondb.net/ability/sand-spit', 'description': 'Creates a sandstorm when hit by an attack.'}, {'name': 'Shed Skin', 'url': 'https://pokemondb.net/ability/shed-skin'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}]</t>
         </is>
       </c>
     </row>
@@ -35961,7 +35961,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>[{'name': 'Gulp Missile', 'url': 'https://pokemondb.net/ability/gulp-missile'}]</t>
+          <t>[{'name': 'Gulp Missile', 'url': 'https://pokemondb.net/ability/gulp-missile', 'description': 'is the signature ability of'}]</t>
         </is>
       </c>
     </row>
@@ -36045,7 +36045,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>[{'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim'}, {'name': 'Propeller Tail', 'url': 'https://pokemondb.net/ability/propeller-tail'}]</t>
+          <t>[{'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim'}, {'name': 'Propeller Tail', 'url': 'https://pokemondb.net/ability/propeller-tail', 'description': 'Ignores moves and abilities that draw in moves.'}]</t>
         </is>
       </c>
     </row>
@@ -36129,7 +36129,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>[{'name': 'Punk Rock', 'url': 'https://pokemondb.net/ability/punk-rock'}, {'name': 'Plus', 'url': 'https://pokemondb.net/ability/plus'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}, {'name': 'Punk Rock', 'url': 'https://pokemondb.net/ability/punk-rock'}, {'name': 'Minus', 'url': 'https://pokemondb.net/ability/minus'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}]</t>
+          <t>[{'name': 'Punk Rock', 'url': 'https://pokemondb.net/ability/punk-rock', 'description': 'Boosts sound-based moves and halves damage from the same moves.'}, {'name': 'Plus', 'url': 'https://pokemondb.net/ability/plus'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}, {'name': 'Punk Rock', 'url': 'https://pokemondb.net/ability/punk-rock', 'description': 'Boosts sound-based moves and halves damage from the same moves.'}, {'name': 'Minus', 'url': 'https://pokemondb.net/ability/minus', 'description': 'Ups Sp. Atk if another Pokémon has Plus or Minus.'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}]</t>
         </is>
       </c>
     </row>
@@ -36213,7 +36213,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>[{'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire'}, {'name': 'White Smoke', 'url': 'https://pokemondb.net/ability/white-smoke'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}]</t>
+          <t>[{'name': 'Flash Fire', 'url': 'https://pokemondb.net/ability/flash-fire'}, {'name': 'White Smoke', 'url': 'https://pokemondb.net/ability/white-smoke', 'description': 'Prevents other Pokémon from lowering its stats.'}, {'name': 'Flame Body', 'url': 'https://pokemondb.net/ability/flame-body'}]</t>
         </is>
       </c>
     </row>
@@ -36507,7 +36507,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>[{'name': 'Healer', 'url': 'https://pokemondb.net/ability/healer'}, {'name': 'Anticipation', 'url': 'https://pokemondb.net/ability/anticipation'}, {'name': 'Magic Bounce', 'url': 'https://pokemondb.net/ability/magic-bounce'}]</t>
+          <t>[{'name': 'Healer', 'url': 'https://pokemondb.net/ability/healer'}, {'name': 'Anticipation', 'url': 'https://pokemondb.net/ability/anticipation', 'description': 'A Pokémon with'}, {'name': 'Magic Bounce', 'url': 'https://pokemondb.net/ability/magic-bounce'}]</t>
         </is>
       </c>
     </row>
@@ -36717,7 +36717,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>[{'name': 'Battle Armor', 'url': 'https://pokemondb.net/ability/battle-armor'}, {'name': 'Tough Claws', 'url': 'https://pokemondb.net/ability/tough-claws'}, {'name': 'Steely Spirit', 'url': 'https://pokemondb.net/ability/steely-spirit'}]</t>
+          <t>[{'name': 'Battle Armor', 'url': 'https://pokemondb.net/ability/battle-armor'}, {'name': 'Tough Claws', 'url': 'https://pokemondb.net/ability/tough-claws'}, {'name': 'Steely Spirit', 'url': 'https://pokemondb.net/ability/steely-spirit', 'description': "Powers up ally Pokémon's Steel-type moves."}]</t>
         </is>
       </c>
     </row>
@@ -36759,7 +36759,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>[{'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor'}, {'name': 'Perish Body', 'url': 'https://pokemondb.net/ability/perish-body'}]</t>
+          <t>[{'name': 'Weak Armor', 'url': 'https://pokemondb.net/ability/weak-armor'}, {'name': 'Perish Body', 'url': 'https://pokemondb.net/ability/perish-body', 'description': 'When hit by a move that makes direct contact, the Pokémon and the attacker will faint after three turns unless they switch out of battle.'}]</t>
         </is>
       </c>
     </row>
@@ -36801,7 +36801,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>[{'name': 'Steadfast', 'url': 'https://pokemondb.net/ability/steadfast'}, {'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy'}]</t>
+          <t>[{'name': 'Steadfast', 'url': 'https://pokemondb.net/ability/steadfast', 'description': 'Raises Speed each time the Pokémon flinches.'}, {'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy'}]</t>
         </is>
       </c>
     </row>
@@ -36843,7 +36843,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>[{'name': 'Tangled Feet', 'url': 'https://pokemondb.net/ability/tangled-feet'}, {'name': 'Screen Cleaner', 'url': 'https://pokemondb.net/ability/screen-cleaner'}, {'name': 'Ice Body', 'url': 'https://pokemondb.net/ability/ice-body'}]</t>
+          <t>[{'name': 'Tangled Feet', 'url': 'https://pokemondb.net/ability/tangled-feet'}, {'name': 'Screen Cleaner', 'url': 'https://pokemondb.net/ability/screen-cleaner', 'description': 'Nullifies effects of Light Screen, Reflect, and Aurora Veil.'}, {'name': 'Ice Body', 'url': 'https://pokemondb.net/ability/ice-body'}]</t>
         </is>
       </c>
     </row>
@@ -36969,7 +36969,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>[{'name': 'Sweet Veil', 'url': 'https://pokemondb.net/ability/sweet-veil'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil'}]</t>
+          <t>[{'name': 'Sweet Veil', 'url': 'https://pokemondb.net/ability/sweet-veil', 'description': 'prevents this Pokémon and its allies from falling asleep, for example from moves like'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil'}]</t>
         </is>
       </c>
     </row>
@@ -37011,7 +37011,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>[{'name': 'Battle Armor', 'url': 'https://pokemondb.net/ability/battle-armor'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}]</t>
+          <t>[{'name': 'Battle Armor', 'url': 'https://pokemondb.net/ability/battle-armor', 'description': 'prevents the Pokémon from receiving a critical hit.'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}]</t>
         </is>
       </c>
     </row>
@@ -37053,7 +37053,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>[{'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod'}, {'name': 'Electric Surge', 'url': 'https://pokemondb.net/ability/electric-surge'}]</t>
+          <t>[{'name': 'Lightning Rod', 'url': 'https://pokemondb.net/ability/lightning-rod'}, {'name': 'Electric Surge', 'url': 'https://pokemondb.net/ability/electric-surge', 'description': 'creates a low-lying electric field, like the move'}]</t>
         </is>
       </c>
     </row>
@@ -37095,7 +37095,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>[{'name': 'Shield Dust', 'url': 'https://pokemondb.net/ability/shield-dust'}, {'name': 'Ice Scales', 'url': 'https://pokemondb.net/ability/ice-scales'}]</t>
+          <t>[{'name': 'Shield Dust', 'url': 'https://pokemondb.net/ability/shield-dust'}, {'name': 'Ice Scales', 'url': 'https://pokemondb.net/ability/ice-scales', 'description': 'Halves damage from Special moves.'}]</t>
         </is>
       </c>
     </row>
@@ -37179,7 +37179,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>[{'name': 'Power Spot', 'url': 'https://pokemondb.net/ability/power-spot'}]</t>
+          <t>[{'name': 'Power Spot', 'url': 'https://pokemondb.net/ability/power-spot', 'description': 'Just being next to the Pokémon powers up moves.'}]</t>
         </is>
       </c>
     </row>
@@ -37221,7 +37221,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>[{'name': 'Ice Face', 'url': 'https://pokemondb.net/ability/ice-face'}, {'name': 'Ice Face', 'url': 'https://pokemondb.net/ability/ice-face'}]</t>
+          <t>[{'name': 'Ice Face', 'url': 'https://pokemondb.net/ability/ice-face', 'description': 'is the signature ability of'}, {'name': 'Ice Face', 'url': 'https://pokemondb.net/ability/ice-face', 'description': 'is the signature ability of'}]</t>
         </is>
       </c>
     </row>
@@ -37263,7 +37263,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>[{'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Psychic Surge', 'url': 'https://pokemondb.net/ability/psychic-surge'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Psychic Surge', 'url': 'https://pokemondb.net/ability/psychic-surge'}]</t>
+          <t>[{'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Psychic Surge', 'url': 'https://pokemondb.net/ability/psychic-surge', 'description': 'creates a low-lying psychic field, like the move'}, {'name': 'Own Tempo', 'url': 'https://pokemondb.net/ability/own-tempo'}, {'name': 'Synchronize', 'url': 'https://pokemondb.net/ability/synchronize'}, {'name': 'Psychic Surge', 'url': 'https://pokemondb.net/ability/psychic-surge', 'description': 'creates a low-lying psychic field, like the move'}]</t>
         </is>
       </c>
     </row>
@@ -37305,7 +37305,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>[{'name': 'Hunger Switch', 'url': 'https://pokemondb.net/ability/hunger-switch'}, {'name': 'Hunger Switch', 'url': 'https://pokemondb.net/ability/hunger-switch'}]</t>
+          <t>[{'name': 'Hunger Switch', 'url': 'https://pokemondb.net/ability/hunger-switch', 'description': "causes Morpeko to change its form each turn, alternating between Full Belly Mode and Hangry Mode. Morpeko's form also changes the type of its signature move,"}, {'name': 'Hunger Switch', 'url': 'https://pokemondb.net/ability/hunger-switch', 'description': "causes Morpeko to change its form each turn, alternating between Full Belly Mode and Hangry Mode. Morpeko's form also changes the type of its signature move,"}]</t>
         </is>
       </c>
     </row>
@@ -37599,7 +37599,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>[{'name': 'Light Metal', 'url': 'https://pokemondb.net/ability/light-metal'}, {'name': 'Heavy Metal', 'url': 'https://pokemondb.net/ability/heavy-metal'}, {'name': 'Stalwart', 'url': 'https://pokemondb.net/ability/stalwart'}]</t>
+          <t>[{'name': 'Light Metal', 'url': 'https://pokemondb.net/ability/light-metal'}, {'name': 'Heavy Metal', 'url': 'https://pokemondb.net/ability/heavy-metal', 'description': "doubles the Pokémon's weight in battle. Increasing weight affects these moves:"}, {'name': 'Stalwart', 'url': 'https://pokemondb.net/ability/stalwart', 'description': 'Ignores moves and abilities that draw in moves.'}]</t>
         </is>
       </c>
     </row>
@@ -37767,7 +37767,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>[{'name': 'Intrepid Sword', 'url': 'https://pokemondb.net/ability/intrepid-sword'}, {'name': 'Intrepid Sword', 'url': 'https://pokemondb.net/ability/intrepid-sword'}]</t>
+          <t>[{'name': 'Intrepid Sword', 'url': 'https://pokemondb.net/ability/intrepid-sword', 'description': 'Boosts Attack in battle.'}, {'name': 'Intrepid Sword', 'url': 'https://pokemondb.net/ability/intrepid-sword', 'description': 'Boosts Attack in battle.'}]</t>
         </is>
       </c>
     </row>
@@ -37809,7 +37809,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>[{'name': 'Dauntless Shield', 'url': 'https://pokemondb.net/ability/dauntless-shield'}, {'name': 'Dauntless Shield', 'url': 'https://pokemondb.net/ability/dauntless-shield'}]</t>
+          <t>[{'name': 'Dauntless Shield', 'url': 'https://pokemondb.net/ability/dauntless-shield', 'description': 'Boosts Defense in battle.'}, {'name': 'Dauntless Shield', 'url': 'https://pokemondb.net/ability/dauntless-shield', 'description': 'Boosts Defense in battle.'}]</t>
         </is>
       </c>
     </row>
@@ -37935,7 +37935,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>[{'name': 'Unseen Fist', 'url': 'https://pokemondb.net/ability/unseen-fist'}, {'name': 'Unseen Fist', 'url': 'https://pokemondb.net/ability/unseen-fist'}]</t>
+          <t>[{'name': 'Unseen Fist', 'url': 'https://pokemondb.net/ability/unseen-fist', 'description': 'Contact moves can strike through Protect/Detect.'}, {'name': 'Unseen Fist', 'url': 'https://pokemondb.net/ability/unseen-fist', 'description': 'Contact moves can strike through Protect/Detect.'}]</t>
         </is>
       </c>
     </row>
@@ -38019,7 +38019,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>[{'name': 'Transistor', 'url': 'https://pokemondb.net/ability/transistor'}]</t>
+          <t>[{'name': 'Transistor', 'url': 'https://pokemondb.net/ability/transistor', 'description': 'increases the power of Electric-type moves used by this Pokémon by 50%.'}]</t>
         </is>
       </c>
     </row>
@@ -38061,7 +38061,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>[{'name': "Dragon's Maw", 'url': 'https://pokemondb.net/ability/dragons-maw'}]</t>
+          <t>[{'name': "Dragon's Maw", 'url': 'https://pokemondb.net/ability/dragons-maw', 'description': 'increases the power of Dragon-type moves used by this Pokémon by 50%.'}]</t>
         </is>
       </c>
     </row>
@@ -38103,7 +38103,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>[{'name': 'Chilling Neigh', 'url': 'https://pokemondb.net/ability/chilling-neigh'}]</t>
+          <t>[{'name': 'Chilling Neigh', 'url': 'https://pokemondb.net/ability/chilling-neigh', 'description': 'Boosts Attack after knocking out a Pokémon.'}]</t>
         </is>
       </c>
     </row>
@@ -38145,7 +38145,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>[{'name': 'Grim Neigh', 'url': 'https://pokemondb.net/ability/grim-neigh'}]</t>
+          <t>[{'name': 'Grim Neigh', 'url': 'https://pokemondb.net/ability/grim-neigh', 'description': 'Boosts Special Attack after knocking out a Pokémon.'}]</t>
         </is>
       </c>
     </row>
@@ -38187,7 +38187,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>[{'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': 'As One', 'url': 'https://pokemondb.net/ability/as-one'}, {'name': 'As One', 'url': 'https://pokemondb.net/ability/as-one'}]</t>
+          <t>[{'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': 'As One', 'url': 'https://pokemondb.net/ability/as-one', 'description': 'Combines Unnerve and Chilling Neigh/Grim Neigh'}, {'name': 'As One', 'url': 'https://pokemondb.net/ability/as-one', 'description': 'Combines Unnerve and Chilling Neigh/Grim Neigh'}]</t>
         </is>
       </c>
     </row>
@@ -38313,7 +38313,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>[{'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts'}, {'name': 'Bulletproof', 'url': 'https://pokemondb.net/ability/bulletproof'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': "Mind's Eye", 'url': 'https://pokemondb.net/ability/minds-eye'}]</t>
+          <t>[{'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts'}, {'name': 'Bulletproof', 'url': 'https://pokemondb.net/ability/bulletproof'}, {'name': 'Unnerve', 'url': 'https://pokemondb.net/ability/unnerve'}, {'name': "Mind's Eye", 'url': 'https://pokemondb.net/ability/minds-eye', 'description': "The Pokémon ignores changes to opponents' evasiveness, its accuracy can't be lowered, and it can hit Ghost types with Normal- and Fighting-type moves."}]</t>
         </is>
       </c>
     </row>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>[{'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim'}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}]</t>
+          <t>[{'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim', 'description': "doubles the ability-bearer's Speed during"}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Swift Swim', 'url': 'https://pokemondb.net/ability/swift-swim', 'description': "doubles the ability-bearer's Speed during"}, {'name': 'Adaptability', 'url': 'https://pokemondb.net/ability/adaptability'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}]</t>
         </is>
       </c>
     </row>
@@ -38481,7 +38481,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>[{'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm'}, {'name': 'Contrary', 'url': 'https://pokemondb.net/ability/contrary'}, {'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat'}]</t>
+          <t>[{'name': 'Cute Charm', 'url': 'https://pokemondb.net/ability/cute-charm', 'description': 'If a Pokémon with'}, {'name': 'Contrary', 'url': 'https://pokemondb.net/ability/contrary', 'description': 'Makes stat changes have an opposite effect.'}, {'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat'}]</t>
         </is>
       </c>
     </row>
@@ -38607,7 +38607,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Protean', 'url': 'https://pokemondb.net/ability/protean'}]</t>
+          <t>[{'name': 'Overgrow', 'url': 'https://pokemondb.net/ability/overgrow'}, {'name': 'Protean', 'url': 'https://pokemondb.net/ability/protean', 'description': "changes the Pokémon's type to that of its previously used attack."}]</t>
         </is>
       </c>
     </row>
@@ -38649,7 +38649,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze'}, {'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware'}]</t>
+          <t>[{'name': 'Blaze', 'url': 'https://pokemondb.net/ability/blaze'}, {'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware', 'description': 'Ignores any stat changes in the Pokémon.'}]</t>
         </is>
       </c>
     </row>
@@ -38775,7 +38775,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Moxie', 'url': 'https://pokemondb.net/ability/moxie'}]</t>
+          <t>[{'name': 'Torrent', 'url': 'https://pokemondb.net/ability/torrent'}, {'name': 'Moxie', 'url': 'https://pokemondb.net/ability/moxie', 'description': "increases the user's Attack one stage upon fainting an opponent."}]</t>
         </is>
       </c>
     </row>
@@ -38943,7 +38943,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>[{'name': 'Lingering Aroma', 'url': 'https://pokemondb.net/ability/lingering-aroma'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}]</t>
+          <t>[{'name': 'Lingering Aroma', 'url': 'https://pokemondb.net/ability/lingering-aroma', 'description': "Contact changes the attacker's Ability to Lingering Aroma."}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}]</t>
         </is>
       </c>
     </row>
@@ -39321,7 +39321,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>[{'name': 'Friend Guard', 'url': 'https://pokemondb.net/ability/friend-guard'}, {'name': 'Cheek Pouch', 'url': 'https://pokemondb.net/ability/cheek-pouch'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}, {'name': 'Friend Guard', 'url': 'https://pokemondb.net/ability/friend-guard'}, {'name': 'Cheek Pouch', 'url': 'https://pokemondb.net/ability/cheek-pouch'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}]</t>
+          <t>[{'name': 'Friend Guard', 'url': 'https://pokemondb.net/ability/friend-guard', 'description': 'Reduces damage done to allies.'}, {'name': 'Cheek Pouch', 'url': 'https://pokemondb.net/ability/cheek-pouch', 'description': "restores the bearer's HP when a Berry is consumed, on top of the berry's usual effects."}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}, {'name': 'Friend Guard', 'url': 'https://pokemondb.net/ability/friend-guard', 'description': 'Reduces damage done to allies.'}, {'name': 'Cheek Pouch', 'url': 'https://pokemondb.net/ability/cheek-pouch', 'description': "restores the bearer's HP when a Berry is consumed, on top of the berry's usual effects."}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}]</t>
         </is>
       </c>
     </row>
@@ -39405,7 +39405,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>[{'name': 'Well-Baked Body', 'url': 'https://pokemondb.net/ability/well-baked-body'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil'}]</t>
+          <t>[{'name': 'Well-Baked Body', 'url': 'https://pokemondb.net/ability/well-baked-body', 'description': 'Immune to Fire-type moves, and Defense is sharply boosted.'}, {'name': 'Aroma Veil', 'url': 'https://pokemondb.net/ability/aroma-veil'}]</t>
         </is>
       </c>
     </row>
@@ -39531,7 +39531,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>[{'name': 'Seed Sower', 'url': 'https://pokemondb.net/ability/seed-sower'}, {'name': 'Harvest', 'url': 'https://pokemondb.net/ability/harvest'}]</t>
+          <t>[{'name': 'Seed Sower', 'url': 'https://pokemondb.net/ability/seed-sower', 'description': 'Turns the ground into Grassy Terrain when the Pokémon is hit by an attack.'}, {'name': 'Harvest', 'url': 'https://pokemondb.net/ability/harvest'}]</t>
         </is>
       </c>
     </row>
@@ -39573,7 +39573,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>[{'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts'}, {'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts'}, {'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
+          <t>[{'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate', 'description': "lower's the Attack of all opponents by one stage when the ability-bearer switches in (including the start of a battle)."}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts'}, {'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate', 'description': "lower's the Attack of all opponents by one stage when the ability-bearer switches in (including the start of a battle)."}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Guts', 'url': 'https://pokemondb.net/ability/guts'}, {'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate', 'description': "lower's the Attack of all opponents by one stage when the ability-bearer switches in (including the start of a battle)."}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}, {'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate', 'description': "lower's the Attack of all opponents by one stage when the ability-bearer switches in (including the start of a battle)."}, {'name': 'Hustle', 'url': 'https://pokemondb.net/ability/hustle'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
         </is>
       </c>
     </row>
@@ -39699,7 +39699,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>[{'name': 'Purifying Salt', 'url': 'https://pokemondb.net/ability/purifying-salt'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body'}]</t>
+          <t>[{'name': 'Purifying Salt', 'url': 'https://pokemondb.net/ability/purifying-salt', 'description': 'Protects from status conditions and halves damage from Ghost-type moves.'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Clear Body', 'url': 'https://pokemondb.net/ability/clear-body'}]</t>
         </is>
       </c>
     </row>
@@ -39909,7 +39909,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>[{'name': 'Electromorphosis', 'url': 'https://pokemondb.net/ability/electromorphosis'}, {'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Damp', 'url': 'https://pokemondb.net/ability/damp'}]</t>
+          <t>[{'name': 'Electromorphosis', 'url': 'https://pokemondb.net/ability/electromorphosis', 'description': 'If a Pokémon with'}, {'name': 'Static', 'url': 'https://pokemondb.net/ability/static'}, {'name': 'Damp', 'url': 'https://pokemondb.net/ability/damp'}]</t>
         </is>
       </c>
     </row>
@@ -39993,7 +39993,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>[{'name': 'Wind Power', 'url': 'https://pokemondb.net/ability/wind-power'}, {'name': 'Volt Absorb', 'url': 'https://pokemondb.net/ability/volt-absorb'}, {'name': 'Competitive', 'url': 'https://pokemondb.net/ability/competitive'}]</t>
+          <t>[{'name': 'Wind Power', 'url': 'https://pokemondb.net/ability/wind-power', 'description': 'If a Pokémon with'}, {'name': 'Volt Absorb', 'url': 'https://pokemondb.net/ability/volt-absorb', 'description': 'A Pokémon with'}, {'name': 'Competitive', 'url': 'https://pokemondb.net/ability/competitive', 'description': "raises the ability-bearer's Special Attack by two stages when hit by a stat-lowering move."}]</t>
         </is>
       </c>
     </row>
@@ -40077,7 +40077,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>[{'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Guard Dog', 'url': 'https://pokemondb.net/ability/guard-dog'}, {'name': 'Stakeout', 'url': 'https://pokemondb.net/ability/stakeout'}]</t>
+          <t>[{'name': 'Intimidate', 'url': 'https://pokemondb.net/ability/intimidate'}, {'name': 'Guard Dog', 'url': 'https://pokemondb.net/ability/guard-dog'}, {'name': 'Stakeout', 'url': 'https://pokemondb.net/ability/stakeout', 'description': 'enables the Pokémon to deal twice the normal damage to any Pokémon that switches in or enters the field mid-battle.'}]</t>
         </is>
       </c>
     </row>
@@ -40161,7 +40161,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>[{'name': 'Unburden', 'url': 'https://pokemondb.net/ability/unburden'}, {'name': 'Poison Touch', 'url': 'https://pokemondb.net/ability/poison-touch'}, {'name': 'Prankster', 'url': 'https://pokemondb.net/ability/prankster'}]</t>
+          <t>[{'name': 'Unburden', 'url': 'https://pokemondb.net/ability/unburden', 'description': 'Raises Speed if a held item is used.'}, {'name': 'Poison Touch', 'url': 'https://pokemondb.net/ability/poison-touch', 'description': 'May poison targets when a Pokémon makes contact.'}, {'name': 'Prankster', 'url': 'https://pokemondb.net/ability/prankster'}]</t>
         </is>
       </c>
     </row>
@@ -40245,7 +40245,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>[{'name': 'Wind Rider', 'url': 'https://pokemondb.net/ability/wind-rider'}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator'}]</t>
+          <t>[{'name': 'Wind Rider', 'url': 'https://pokemondb.net/ability/wind-rider', 'description': "gives immunity to wind moves, and causes the Pokémon's Attack to increase by one stage when hit by one."}, {'name': 'Infiltrator', 'url': 'https://pokemondb.net/ability/infiltrator'}]</t>
         </is>
       </c>
     </row>
@@ -40287,7 +40287,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>[{'name': 'Mycelium Might', 'url': 'https://pokemondb.net/ability/mycelium-might'}]</t>
+          <t>[{'name': 'Mycelium Might', 'url': 'https://pokemondb.net/ability/mycelium-might', 'description': "Status moves go last, but are not affected by the opponent's ability."}]</t>
         </is>
       </c>
     </row>
@@ -40371,7 +40371,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>[{'name': 'Anger Shell', 'url': 'https://pokemondb.net/ability/anger-shell'}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
+          <t>[{'name': 'Anger Shell', 'url': 'https://pokemondb.net/ability/anger-shell', 'description': "When the Pokémon's HP drops below half,"}, {'name': 'Shell Armor', 'url': 'https://pokemondb.net/ability/shell-armor'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}]</t>
         </is>
       </c>
     </row>
@@ -40413,7 +40413,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}, {'name': 'Klutz', 'url': 'https://pokemondb.net/ability/klutz'}]</t>
+          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}, {'name': 'Klutz', 'url': 'https://pokemondb.net/ability/klutz', 'description': "The Pokémon can't use any held items."}]</t>
         </is>
       </c>
     </row>
@@ -40455,7 +40455,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}, {'name': 'Moody', 'url': 'https://pokemondb.net/ability/moody'}]</t>
+          <t>[{'name': 'Chlorophyll', 'url': 'https://pokemondb.net/ability/chlorophyll'}, {'name': 'Insomnia', 'url': 'https://pokemondb.net/ability/insomnia'}, {'name': 'Moody', 'url': 'https://pokemondb.net/ability/moody', 'description': 'Raises one stat and lowers another.'}]</t>
         </is>
       </c>
     </row>
@@ -40623,7 +40623,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>[{'name': 'Opportunist', 'url': 'https://pokemondb.net/ability/opportunist'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Speed Boost', 'url': 'https://pokemondb.net/ability/speed-boost'}]</t>
+          <t>[{'name': 'Opportunist', 'url': 'https://pokemondb.net/ability/opportunist', 'description': 'Copies stat boosts by the opponent.'}, {'name': 'Frisk', 'url': 'https://pokemondb.net/ability/frisk'}, {'name': 'Speed Boost', 'url': 'https://pokemondb.net/ability/speed-boost'}]</t>
         </is>
       </c>
     </row>
@@ -40875,7 +40875,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>[{'name': 'Big Pecks', 'url': 'https://pokemondb.net/ability/big-pecks'}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Rocky Payload', 'url': 'https://pokemondb.net/ability/rocky-payload'}]</t>
+          <t>[{'name': 'Big Pecks', 'url': 'https://pokemondb.net/ability/big-pecks'}, {'name': 'Keen Eye', 'url': 'https://pokemondb.net/ability/keen-eye'}, {'name': 'Rocky Payload', 'url': 'https://pokemondb.net/ability/rocky-payload', 'description': 'increases the power of Rock-type moves used by this Pokémon by 50%.'}]</t>
         </is>
       </c>
     </row>
@@ -40959,7 +40959,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>[{'name': 'Zero to Hero', 'url': 'https://pokemondb.net/ability/zero-to-hero'}, {'name': 'Zero to Hero', 'url': 'https://pokemondb.net/ability/zero-to-hero'}]</t>
+          <t>[{'name': 'Zero to Hero', 'url': 'https://pokemondb.net/ability/zero-to-hero', 'description': 'Transforms into its Hero Form when switching out.'}, {'name': 'Zero to Hero', 'url': 'https://pokemondb.net/ability/zero-to-hero', 'description': 'Transforms into its Hero Form when switching out.'}]</t>
         </is>
       </c>
     </row>
@@ -41001,7 +41001,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>[{'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat'}, {'name': 'Slow Start', 'url': 'https://pokemondb.net/ability/slow-start'}]</t>
+          <t>[{'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat', 'description': 'makes the Pokémon immune to residual damage from weather conditions (specifically'}, {'name': 'Slow Start', 'url': 'https://pokemondb.net/ability/slow-start'}]</t>
         </is>
       </c>
     </row>
@@ -41043,7 +41043,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>[{'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat'}, {'name': 'Filter', 'url': 'https://pokemondb.net/ability/filter'}]</t>
+          <t>[{'name': 'Overcoat', 'url': 'https://pokemondb.net/ability/overcoat'}, {'name': 'Filter', 'url': 'https://pokemondb.net/ability/filter', 'description': 'reduces the damage taken from super-effective attacks by 25%.'}]</t>
         </is>
       </c>
     </row>
@@ -41127,7 +41127,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>[{'name': 'Earth Eater', 'url': 'https://pokemondb.net/ability/earth-eater'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}]</t>
+          <t>[{'name': 'Earth Eater', 'url': 'https://pokemondb.net/ability/earth-eater', 'description': 'Restores HP when hit by a Ground-type move.'}, {'name': 'Sand Veil', 'url': 'https://pokemondb.net/ability/sand-veil'}]</t>
         </is>
       </c>
     </row>
@@ -41211,7 +41211,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>[{'name': 'Toxic Debris', 'url': 'https://pokemondb.net/ability/toxic-debris'}, {'name': 'Corrosion', 'url': 'https://pokemondb.net/ability/corrosion'}]</t>
+          <t>[{'name': 'Toxic Debris', 'url': 'https://pokemondb.net/ability/toxic-debris', 'description': 'Scatters poison spikes at the feet of the opposing team when the Pokémon takes damage from physical moves.'}, {'name': 'Corrosion', 'url': 'https://pokemondb.net/ability/corrosion', 'description': 'allows the bearer to poison any Pokémon, including Steel and Poison types.'}]</t>
         </is>
       </c>
     </row>
@@ -41295,7 +41295,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>[{'name': 'Sand Rush', 'url': 'https://pokemondb.net/ability/sand-rush'}, {'name': 'Fluffy', 'url': 'https://pokemondb.net/ability/fluffy'}]</t>
+          <t>[{'name': 'Sand Rush', 'url': 'https://pokemondb.net/ability/sand-rush', 'description': "doubles the ability-bearer's Speed during a"}, {'name': 'Fluffy', 'url': 'https://pokemondb.net/ability/fluffy', 'description': 'reduces damage from contact moves by 50%, but Fire-type moves do double damage. Fire-type moves that make contact do regular damage.'}]</t>
         </is>
       </c>
     </row>
@@ -41337,7 +41337,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>[{'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy'}, {'name': 'Tangled Feet', 'url': 'https://pokemondb.net/ability/tangled-feet'}, {'name': 'Costar', 'url': 'https://pokemondb.net/ability/costar'}]</t>
+          <t>[{'name': 'Scrappy', 'url': 'https://pokemondb.net/ability/scrappy', 'description': 'Enables moves to hit Ghost-type Pokémon.'}, {'name': 'Tangled Feet', 'url': 'https://pokemondb.net/ability/tangled-feet'}, {'name': 'Costar', 'url': 'https://pokemondb.net/ability/costar', 'description': "Copies ally's stat changes on entering battle."}]</t>
         </is>
       </c>
     </row>
@@ -41421,7 +41421,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>[{'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}, {'name': 'Slush Rush', 'url': 'https://pokemondb.net/ability/slush-rush'}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
+          <t>[{'name': 'Thick Fat', 'url': 'https://pokemondb.net/ability/thick-fat'}, {'name': 'Slush Rush', 'url': 'https://pokemondb.net/ability/slush-rush', 'description': "Boosts the Pokémon's Speed stat in a hailstorm."}, {'name': 'Sheer Force', 'url': 'https://pokemondb.net/ability/sheer-force'}]</t>
         </is>
       </c>
     </row>
@@ -41463,7 +41463,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>[{'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Sharpness', 'url': 'https://pokemondb.net/ability/sharpness'}]</t>
+          <t>[{'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Sharpness', 'url': 'https://pokemondb.net/ability/sharpness', 'description': 'increases the power of all'}]</t>
         </is>
       </c>
     </row>
@@ -41505,7 +41505,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>[{'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware'}, {'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious'}, {'name': 'Water Veil', 'url': 'https://pokemondb.net/ability/water-veil'}]</t>
+          <t>[{'name': 'Unaware', 'url': 'https://pokemondb.net/ability/unaware'}, {'name': 'Oblivious', 'url': 'https://pokemondb.net/ability/oblivious'}, {'name': 'Water Veil', 'url': 'https://pokemondb.net/ability/water-veil', 'description': 'Prevents the Pokémon from getting a burn.'}]</t>
         </is>
       </c>
     </row>
@@ -41547,7 +41547,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>[{'name': 'Commander', 'url': 'https://pokemondb.net/ability/commander'}, {'name': 'Storm Drain', 'url': 'https://pokemondb.net/ability/storm-drain'}]</t>
+          <t>[{'name': 'Commander', 'url': 'https://pokemondb.net/ability/commander', 'description': 'Goes inside the mouth of an ally Dondozo if one is on the field.'}, {'name': 'Storm Drain', 'url': 'https://pokemondb.net/ability/storm-drain', 'description': 'forces all single-target'}]</t>
         </is>
       </c>
     </row>
@@ -41589,7 +41589,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>[{'name': 'Vital Spirit', 'url': 'https://pokemondb.net/ability/vital-spirit'}, {'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}]</t>
+          <t>[{'name': 'Vital Spirit', 'url': 'https://pokemondb.net/ability/vital-spirit', 'description': 'prevents the ability-bearer from falling asleep. This means that it also prevents the use of the move'}, {'name': 'Inner Focus', 'url': 'https://pokemondb.net/ability/inner-focus', 'description': 'prevents the Pokémon from flinching, for example when attacked by a move like'}, {'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}]</t>
         </is>
       </c>
     </row>
@@ -41673,7 +41673,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>[{'name': 'Cud Chew', 'url': 'https://pokemondb.net/ability/cud-chew'}, {'name': 'Armor Tail', 'url': 'https://pokemondb.net/ability/armor-tail'}, {'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}]</t>
+          <t>[{'name': 'Cud Chew', 'url': 'https://pokemondb.net/ability/cud-chew', 'description': 'causes the Pokémon to reuse an already consumed Berry at the end of the next turn.'}, {'name': 'Armor Tail', 'url': 'https://pokemondb.net/ability/armor-tail', 'description': 'prevents the opponent from using any moves that have priority, such as'}, {'name': 'Sap Sipper', 'url': 'https://pokemondb.net/ability/sap-sipper'}]</t>
         </is>
       </c>
     </row>
@@ -41757,7 +41757,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>[{'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}, {'name': 'Supreme Overlord', 'url': 'https://pokemondb.net/ability/supreme-overlord'}, {'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}]</t>
+          <t>[{'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}, {'name': 'Supreme Overlord', 'url': 'https://pokemondb.net/ability/supreme-overlord', 'description': 'Attack and Special Attack are boosted for each party Pokémon that has been defeated.'}, {'name': 'Pressure', 'url': 'https://pokemondb.net/ability/pressure'}]</t>
         </is>
       </c>
     </row>
@@ -42009,7 +42009,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>[{'name': 'Protosynthesis', 'url': 'https://pokemondb.net/ability/protosynthesis'}]</t>
+          <t>[{'name': 'Protosynthesis', 'url': 'https://pokemondb.net/ability/protosynthesis', 'description': 'Raises highest stat in harsh sunlight, or if holding Booster Energy.'}]</t>
         </is>
       </c>
     </row>
@@ -42177,7 +42177,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>[{'name': 'Quark Drive', 'url': 'https://pokemondb.net/ability/quark-drive'}]</t>
+          <t>[{'name': 'Quark Drive', 'url': 'https://pokemondb.net/ability/quark-drive', 'description': 'Raises highest stat on Electric Terrain, or if holding Booster Energy.'}]</t>
         </is>
       </c>
     </row>
@@ -42387,7 +42387,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>[{'name': 'Thermal Exchange', 'url': 'https://pokemondb.net/ability/thermal-exchange'}, {'name': 'Ice Body', 'url': 'https://pokemondb.net/ability/ice-body'}]</t>
+          <t>[{'name': 'Thermal Exchange', 'url': 'https://pokemondb.net/ability/thermal-exchange', 'description': 'Raises Attack when hit by a Fire-type move. Cannot be burned.'}, {'name': 'Ice Body', 'url': 'https://pokemondb.net/ability/ice-body'}]</t>
         </is>
       </c>
     </row>
@@ -42471,7 +42471,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>[{'name': 'Good as Gold', 'url': 'https://pokemondb.net/ability/good-as-gold'}]</t>
+          <t>[{'name': 'Good as Gold', 'url': 'https://pokemondb.net/ability/good-as-gold', 'description': 'Gives immunity to status moves.'}]</t>
         </is>
       </c>
     </row>
@@ -42513,7 +42513,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>[{'name': 'Tablets of Ruin', 'url': 'https://pokemondb.net/ability/tablets-of-ruin'}]</t>
+          <t>[{'name': 'Tablets of Ruin', 'url': 'https://pokemondb.net/ability/tablets-of-ruin', 'description': 'Lowers Attack of all Pokémon except itself.'}]</t>
         </is>
       </c>
     </row>
@@ -42555,7 +42555,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>[{'name': 'Sword of Ruin', 'url': 'https://pokemondb.net/ability/sword-of-ruin'}]</t>
+          <t>[{'name': 'Sword of Ruin', 'url': 'https://pokemondb.net/ability/sword-of-ruin', 'description': 'Lowers Defense of all Pokémon except itself.'}]</t>
         </is>
       </c>
     </row>
@@ -42597,7 +42597,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>[{'name': 'Vessel of Ruin', 'url': 'https://pokemondb.net/ability/vessel-of-ruin'}]</t>
+          <t>[{'name': 'Vessel of Ruin', 'url': 'https://pokemondb.net/ability/vessel-of-ruin', 'description': 'Lowers Special Attack of all Pokémon except itself.'}]</t>
         </is>
       </c>
     </row>
@@ -42639,7 +42639,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>[{'name': 'Beads of Ruin', 'url': 'https://pokemondb.net/ability/beads-of-ruin'}]</t>
+          <t>[{'name': 'Beads of Ruin', 'url': 'https://pokemondb.net/ability/beads-of-ruin', 'description': 'Lowers Special Defense of all Pokémon except itself.'}]</t>
         </is>
       </c>
     </row>
@@ -42765,7 +42765,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>[{'name': 'Orichalcum Pulse', 'url': 'https://pokemondb.net/ability/orichalcum-pulse'}]</t>
+          <t>[{'name': 'Orichalcum Pulse', 'url': 'https://pokemondb.net/ability/orichalcum-pulse', 'description': 'Turns the sunlight harsh when entering battle, and boosts Attack while active.'}]</t>
         </is>
       </c>
     </row>
@@ -42807,7 +42807,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>[{'name': 'Hadron Engine', 'url': 'https://pokemondb.net/ability/hadron-engine'}]</t>
+          <t>[{'name': 'Hadron Engine', 'url': 'https://pokemondb.net/ability/hadron-engine', 'description': 'Creates an Electric Terrain when entering battle, and boosts Special Attack while active.'}]</t>
         </is>
       </c>
     </row>
@@ -42933,7 +42933,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>[{'name': 'Supersweet Syrup', 'url': 'https://pokemondb.net/ability/supersweet-syrup'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold'}]</t>
+          <t>[{'name': 'Supersweet Syrup', 'url': 'https://pokemondb.net/ability/supersweet-syrup'}, {'name': 'Gluttony', 'url': 'https://pokemondb.net/ability/gluttony', 'description': 'A Pokémon with'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold'}]</t>
         </is>
       </c>
     </row>
@@ -43017,7 +43017,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>[{'name': 'Hospitality', 'url': 'https://pokemondb.net/ability/hospitality'}, {'name': 'Heatproof', 'url': 'https://pokemondb.net/ability/heatproof'}]</t>
+          <t>[{'name': 'Hospitality', 'url': 'https://pokemondb.net/ability/hospitality', 'description': "When the Pokémon enters a battle, it showers its ally with hospitality, restoring a small amount of the ally's HP."}, {'name': 'Heatproof', 'url': 'https://pokemondb.net/ability/heatproof', 'description': 'reduces the damage taken from'}]</t>
         </is>
       </c>
     </row>
@@ -43059,7 +43059,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>[{'name': 'Toxic Chain', 'url': 'https://pokemondb.net/ability/toxic-chain'}, {'name': 'Guard Dog', 'url': 'https://pokemondb.net/ability/guard-dog'}]</t>
+          <t>[{'name': 'Toxic Chain', 'url': 'https://pokemondb.net/ability/toxic-chain'}, {'name': 'Guard Dog', 'url': 'https://pokemondb.net/ability/guard-dog', 'description': 'Boosts Attack if intimidated, and prevents being forced to switch out.'}]</t>
         </is>
       </c>
     </row>
@@ -43143,7 +43143,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>[{'name': 'Toxic Chain', 'url': 'https://pokemondb.net/ability/toxic-chain'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}]</t>
+          <t>[{'name': 'Toxic Chain', 'url': 'https://pokemondb.net/ability/toxic-chain', 'description': 'may cause bad poisoning when the Pokémon hits an opponent with a move.'}, {'name': 'Technician', 'url': 'https://pokemondb.net/ability/technician'}]</t>
         </is>
       </c>
     </row>
@@ -43185,7 +43185,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>[{'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect'}, {'name': 'Water Absorb', 'url': 'https://pokemondb.net/ability/water-absorb'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect'}]</t>
+          <t>[{'name': 'Defiant', 'url': 'https://pokemondb.net/ability/defiant'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect', 'description': 'boosts a particular stat, depending on the form of a Terastallized'}, {'name': 'Water Absorb', 'url': 'https://pokemondb.net/ability/water-absorb'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect', 'description': 'boosts a particular stat, depending on the form of a Terastallized'}, {'name': 'Mold Breaker', 'url': 'https://pokemondb.net/ability/mold-breaker'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect', 'description': 'boosts a particular stat, depending on the form of a Terastallized'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Embody Aspect', 'url': 'https://pokemondb.net/ability/embody-aspect', 'description': 'boosts a particular stat, depending on the form of a Terastallized'}]</t>
         </is>
       </c>
     </row>
@@ -43227,7 +43227,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>[{'name': 'Stamina', 'url': 'https://pokemondb.net/ability/stamina'}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Stalwart', 'url': 'https://pokemondb.net/ability/stalwart'}]</t>
+          <t>[{'name': 'Stamina', 'url': 'https://pokemondb.net/ability/stamina', 'description': "raises the bearer's Defense by one stage when it is attacked by any move."}, {'name': 'Sturdy', 'url': 'https://pokemondb.net/ability/sturdy'}, {'name': 'Stalwart', 'url': 'https://pokemondb.net/ability/stalwart'}]</t>
         </is>
       </c>
     </row>
@@ -43269,7 +43269,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>[{'name': 'Supersweet Syrup', 'url': 'https://pokemondb.net/ability/supersweet-syrup'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold'}]</t>
+          <t>[{'name': 'Supersweet Syrup', 'url': 'https://pokemondb.net/ability/supersweet-syrup', 'description': 'A sickly sweet scent spreads across the field the first time the Pokémon enters a battle, lowering the evasiveness of opposing Pokémon.'}, {'name': 'Regenerator', 'url': 'https://pokemondb.net/ability/regenerator'}, {'name': 'Sticky Hold', 'url': 'https://pokemondb.net/ability/sticky-hold', 'description': 'prevents held items from being taken or switched.'}]</t>
         </is>
       </c>
     </row>
@@ -43479,7 +43479,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>[{'name': 'Tera Shift', 'url': 'https://pokemondb.net/ability/tera-shift'}, {'name': 'Tera Shell', 'url': 'https://pokemondb.net/ability/tera-shell'}, {'name': 'Teraform Zero', 'url': 'https://pokemondb.net/ability/teraform-zero'}]</t>
+          <t>[{'name': 'Tera Shift', 'url': 'https://pokemondb.net/ability/tera-shift', 'description': 'When the Pokémon enters a battle, it absorbs the energy around itself and transforms into its Terastal Form.'}, {'name': 'Tera Shell', 'url': 'https://pokemondb.net/ability/tera-shell', 'description': 'The Pokémon’s shell contains the powers of each type. All damage-dealing moves that hit the Pokémon when its HP is full will not be very effective.'}, {'name': 'Teraform Zero', 'url': 'https://pokemondb.net/ability/teraform-zero', 'description': 'When Terapagos changes into its Stellar Form, it uses its hidden powers to eliminate all effects of weather and terrain, reducing them to zero.'}]</t>
         </is>
       </c>
     </row>
@@ -43521,7 +43521,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>[{'name': 'Poison Puppeteer', 'url': 'https://pokemondb.net/ability/poison-puppeteer'}]</t>
+          <t>[{'name': 'Poison Puppeteer', 'url': 'https://pokemondb.net/ability/poison-puppeteer', 'description': 'Pokémon poisoned by Pecharunt’s moves will also become confused.'}]</t>
         </is>
       </c>
     </row>
